--- a/tracking/compare/tracking-list.xlsx
+++ b/tracking/compare/tracking-list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\compare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59836A87-A18B-4098-985C-F6DBC212FB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5025BD27-F533-4526-BC48-51D7C40929F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D2D124BC-3906-40C8-BA6E-71B75F658845}"/>
+    <workbookView xWindow="-27240" yWindow="1095" windowWidth="23010" windowHeight="12330" xr2:uid="{D2D124BC-3906-40C8-BA6E-71B75F658845}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -671,7 +671,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -681,12 +681,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF999999"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,7 +750,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -765,12 +759,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -783,9 +771,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1104,12 +1089,12 @@
   <dimension ref="A1:C204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.796875" customWidth="1"/>
+    <col min="2" max="2" width="39.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -1119,2240 +1104,2240 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>113292</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>131685</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3">
         <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>100304</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>109124</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5">
         <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>113097</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>22491</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>3381</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8">
         <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>364</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9">
         <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>3280</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10">
         <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>102142</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11">
         <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>111467</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12">
         <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>115936</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="5">
-        <v>599</v>
+      <c r="C13">
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>391</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14">
         <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>123898</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15">
         <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>27508</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16">
         <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+      <c r="A17" s="4">
         <v>27570</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17">
         <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>27371</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="A19" s="4">
         <v>3621</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19">
         <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>2623</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20">
         <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+      <c r="A21" s="4">
         <v>2797</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21">
         <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>1980</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22">
         <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+      <c r="A23" s="4">
         <v>1923</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23">
         <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>1687</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24">
         <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
+      <c r="A25" s="4">
         <v>8297</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25">
         <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>2591</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26">
         <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
+      <c r="A27" s="4">
         <v>2789</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>1525</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28">
         <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
+      <c r="A29" s="4">
         <v>2537</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29">
         <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>2198</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30">
         <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
+      <c r="A31" s="4">
         <v>3457</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31">
         <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>2981</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32">
         <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6">
+      <c r="A33" s="4">
         <v>121987</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33">
         <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>3452</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34">
         <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
+      <c r="A35" s="4">
         <v>3450</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35">
         <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>1216</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36">
         <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6">
+      <c r="A37" s="4">
         <v>120522</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37">
         <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>117254</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38">
         <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6">
+      <c r="A39" s="4">
         <v>128302</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39">
         <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="7">
+      <c r="A40" s="5">
         <v>111396</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40">
         <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="7">
+      <c r="A41" s="5">
         <v>103797</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41">
         <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="7">
+      <c r="A42" s="5">
         <v>113059</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42">
         <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="7">
+      <c r="A43" s="5">
         <v>125111</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43">
         <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="7">
+      <c r="A44" s="5">
         <v>133184</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44">
         <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="7">
+      <c r="A45" s="5">
         <v>26192</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45">
         <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="7">
+      <c r="A46" s="5">
         <v>3376</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46">
         <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="7">
+      <c r="A47" s="5">
         <v>22636</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47">
         <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="7">
+      <c r="A48" s="5">
         <v>119787</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48">
         <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="7">
+      <c r="A49" s="5">
         <v>112482</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49">
         <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="7">
+      <c r="A50" s="5">
         <v>8199</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50">
         <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="7">
+      <c r="A51" s="5">
         <v>8791</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51">
         <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="6">
+      <c r="A52" s="4">
         <v>111555</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52">
         <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
+      <c r="A53" s="3">
         <v>120540</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53">
         <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="6">
+      <c r="A54" s="4">
         <v>3093</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54">
         <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="4">
+      <c r="A55" s="3">
         <v>102536</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55">
         <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="6">
+      <c r="A56" s="4">
         <v>8484</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56">
         <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="4">
+      <c r="A57" s="3">
         <v>109948</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57">
         <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="6">
+      <c r="A58" s="4">
         <v>115593</v>
       </c>
-      <c r="B58" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" s="5">
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58">
         <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="4">
+      <c r="A59" s="3">
         <v>9390</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59">
         <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="6">
+      <c r="A60" s="4">
         <v>126607</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" t="s">
         <v>61</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60">
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="4">
+      <c r="A61" s="3">
         <v>8292</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61">
         <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="6">
+      <c r="A62" s="4">
         <v>2535</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62">
         <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="4">
+      <c r="A63" s="3">
         <v>24301</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" t="s">
         <v>64</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63">
         <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="6">
+      <c r="A64" s="4">
         <v>119652</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64">
         <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="4">
+      <c r="A65" s="3">
         <v>105414</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" t="s">
         <v>66</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65">
         <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="6">
+      <c r="A66" s="4">
         <v>107542</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" t="s">
         <v>67</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66">
         <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="4">
+      <c r="A67" s="3">
         <v>19204</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" t="s">
         <v>68</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67">
         <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="6">
+      <c r="A68" s="4">
         <v>19672</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" t="s">
         <v>69</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68">
         <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="4">
+      <c r="A69" s="3">
         <v>26216</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" t="s">
         <v>70</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69">
         <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="6">
+      <c r="A70" s="4">
         <v>113538</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" t="s">
         <v>71</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70">
         <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="4">
+      <c r="A71" s="3">
         <v>114379</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71">
         <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="6">
+      <c r="A72" s="4">
         <v>114415</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" t="s">
         <v>73</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72">
         <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="4">
+      <c r="A73" s="3">
         <v>115473</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" t="s">
         <v>74</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C73">
         <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="6">
+      <c r="A74" s="4">
         <v>119469</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" t="s">
         <v>75</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C74">
         <v>84</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="4">
+      <c r="A75" s="3">
         <v>111626</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75">
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="6">
+      <c r="A76" s="4">
         <v>22746</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" t="s">
         <v>77</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76">
         <v>59</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="4">
+      <c r="A77" s="3">
         <v>22675</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" t="s">
         <v>78</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C77">
         <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="6">
+      <c r="A78" s="4">
         <v>15011</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" t="s">
         <v>79</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78">
         <v>59</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="4">
+      <c r="A79" s="3">
         <v>111515</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" t="s">
         <v>80</v>
       </c>
-      <c r="C79" s="5">
+      <c r="C79">
         <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="6">
+      <c r="A80" s="4">
         <v>103139</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" t="s">
         <v>81</v>
       </c>
-      <c r="C80" s="5">
+      <c r="C80">
         <v>59</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="4">
+      <c r="A81" s="3">
         <v>610</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" t="s">
         <v>82</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C81">
         <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="6">
+      <c r="A82" s="4">
         <v>107544</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C82">
         <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="4">
+      <c r="A83" s="3">
         <v>104126</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" t="s">
         <v>84</v>
       </c>
-      <c r="C83" s="5">
+      <c r="C83">
         <v>59</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="6">
+      <c r="A84" s="4">
         <v>26107</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" t="s">
         <v>85</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84">
         <v>59</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="4">
+      <c r="A85" s="3">
         <v>115046</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" t="s">
         <v>86</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C85">
         <v>59</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="6">
+      <c r="A86" s="4">
         <v>127132</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" t="s">
         <v>87</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C86">
         <v>59</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="4">
+      <c r="A87" s="3">
         <v>102313</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" t="s">
         <v>88</v>
       </c>
-      <c r="C87" s="5">
+      <c r="C87">
         <v>59</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="6">
+      <c r="A88" s="4">
         <v>114809</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" t="s">
         <v>89</v>
       </c>
-      <c r="C88" s="5">
+      <c r="C88">
         <v>59</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="4">
+      <c r="A89" s="3">
         <v>2988</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" t="s">
         <v>90</v>
       </c>
-      <c r="C89" s="5">
+      <c r="C89">
         <v>59</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="6">
+      <c r="A90" s="4">
         <v>3034</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" t="s">
         <v>91</v>
       </c>
-      <c r="C90" s="5">
+      <c r="C90">
         <v>59</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="4">
+      <c r="A91" s="3">
         <v>148337</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" t="s">
         <v>92</v>
       </c>
-      <c r="C91" s="5">
+      <c r="C91">
         <v>59</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="6">
+      <c r="A92" s="4">
         <v>8877</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B92" t="s">
         <v>93</v>
       </c>
-      <c r="C92" s="5">
+      <c r="C92">
         <v>59</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="4">
+      <c r="A93" s="3">
         <v>3333</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" t="s">
         <v>94</v>
       </c>
-      <c r="C93" s="5">
+      <c r="C93">
         <v>59</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="6">
+      <c r="A94" s="4">
         <v>19220</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" t="s">
         <v>95</v>
       </c>
-      <c r="C94" s="5">
+      <c r="C94">
         <v>59</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="4">
+      <c r="A95" s="3">
         <v>8895</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" t="s">
         <v>96</v>
       </c>
-      <c r="C95" s="5">
+      <c r="C95">
         <v>59</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="6">
+      <c r="A96" s="4">
         <v>18210</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" t="s">
         <v>97</v>
       </c>
-      <c r="C96" s="5">
+      <c r="C96">
         <v>59</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="4">
+      <c r="A97" s="3">
         <v>109379</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" t="s">
         <v>98</v>
       </c>
-      <c r="C97" s="5">
+      <c r="C97">
         <v>59</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="6">
+      <c r="A98" s="4">
         <v>22124</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" t="s">
         <v>99</v>
       </c>
-      <c r="C98" s="5">
+      <c r="C98">
         <v>59</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="4">
+      <c r="A99" s="3">
         <v>22788</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="B99" t="s">
         <v>100</v>
       </c>
-      <c r="C99" s="5">
+      <c r="C99">
         <v>84</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="6">
+      <c r="A100" s="4">
         <v>109250</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" t="s">
         <v>101</v>
       </c>
-      <c r="C100" s="5">
+      <c r="C100">
         <v>59</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="4">
+      <c r="A101" s="3">
         <v>3832</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" t="s">
         <v>102</v>
       </c>
-      <c r="C101" s="5">
+      <c r="C101">
         <v>59</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="6">
+      <c r="A102" s="4">
         <v>107404</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" t="s">
         <v>103</v>
       </c>
-      <c r="C102" s="5">
+      <c r="C102">
         <v>82</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="4">
+      <c r="A103" s="3">
         <v>100310</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" t="s">
         <v>104</v>
       </c>
-      <c r="C103" s="5">
+      <c r="C103">
         <v>59</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="6">
+      <c r="A104" s="4">
         <v>27820</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B104" t="s">
         <v>105</v>
       </c>
-      <c r="C104" s="5">
+      <c r="C104">
         <v>59</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="4">
+      <c r="A105" s="3">
         <v>24845</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="B105" t="s">
         <v>106</v>
       </c>
-      <c r="C105" s="5">
+      <c r="C105">
         <v>59</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="6">
+      <c r="A106" s="4">
         <v>24911</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" t="s">
         <v>107</v>
       </c>
-      <c r="C106" s="5">
+      <c r="C106">
         <v>82</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="4">
+      <c r="A107" s="3">
         <v>3833</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="B107" t="s">
         <v>108</v>
       </c>
-      <c r="C107" s="5">
+      <c r="C107">
         <v>59</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="6">
+      <c r="A108" s="4">
         <v>1238</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B108" t="s">
         <v>109</v>
       </c>
-      <c r="C108" s="5">
+      <c r="C108">
         <v>65</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="4">
+      <c r="A109" s="3">
         <v>111330</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" t="s">
         <v>110</v>
       </c>
-      <c r="C109" s="5">
+      <c r="C109">
         <v>59</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="6">
+      <c r="A110" s="4">
         <v>126062</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B110" t="s">
         <v>111</v>
       </c>
-      <c r="C110" s="5">
+      <c r="C110">
         <v>59</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="4">
+      <c r="A111" s="3">
         <v>26160</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="B111" t="s">
         <v>112</v>
       </c>
-      <c r="C111" s="5">
+      <c r="C111">
         <v>59</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="6">
+      <c r="A112" s="4">
         <v>26834</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" t="s">
         <v>113</v>
       </c>
-      <c r="C112" s="5">
+      <c r="C112">
         <v>59</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="4">
+      <c r="A113" s="3">
         <v>25827</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="B113" t="s">
         <v>114</v>
       </c>
-      <c r="C113" s="5">
+      <c r="C113">
         <v>59</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="6">
+      <c r="A114" s="4">
         <v>1191</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" t="s">
         <v>115</v>
       </c>
-      <c r="C114" s="5">
+      <c r="C114">
         <v>59</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="4">
+      <c r="A115" s="3">
         <v>9348</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="B115" t="s">
         <v>116</v>
       </c>
-      <c r="C115" s="5">
+      <c r="C115">
         <v>59</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="6">
+      <c r="A116" s="4">
         <v>109051</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="B116" t="s">
         <v>117</v>
       </c>
-      <c r="C116" s="5">
+      <c r="C116">
         <v>59</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="4">
+      <c r="A117" s="3">
         <v>127574</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="B117" t="s">
         <v>118</v>
       </c>
-      <c r="C117" s="5">
+      <c r="C117">
         <v>59</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="6">
+      <c r="A118" s="4">
         <v>122863</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B118" t="s">
         <v>119</v>
       </c>
-      <c r="C118" s="5">
+      <c r="C118">
         <v>59</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="4">
+      <c r="A119" s="3">
         <v>2990</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B119" t="s">
         <v>120</v>
       </c>
-      <c r="C119" s="5">
+      <c r="C119">
         <v>59</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="6">
+      <c r="A120" s="4">
         <v>114972</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" t="s">
         <v>121</v>
       </c>
-      <c r="C120" s="5">
+      <c r="C120">
         <v>59</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="4">
+      <c r="A121" s="3">
         <v>659</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B121" t="s">
         <v>122</v>
       </c>
-      <c r="C121" s="5">
+      <c r="C121">
         <v>74</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="6">
+      <c r="A122" s="4">
         <v>1204</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" t="s">
         <v>123</v>
       </c>
-      <c r="C122" s="5">
+      <c r="C122">
         <v>59</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="4">
+      <c r="A123" s="3">
         <v>3774</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="B123" t="s">
         <v>124</v>
       </c>
-      <c r="C123" s="5">
+      <c r="C123">
         <v>59</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="6">
+      <c r="A124" s="4">
         <v>121979</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B124" t="s">
         <v>125</v>
       </c>
-      <c r="C124" s="5">
+      <c r="C124">
         <v>59</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="4">
+      <c r="A125" s="3">
         <v>130826</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B125" t="s">
         <v>126</v>
       </c>
-      <c r="C125" s="5">
+      <c r="C125">
         <v>59</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="6">
+      <c r="A126" s="4">
         <v>17469</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="B126" t="s">
         <v>127</v>
       </c>
-      <c r="C126" s="5">
+      <c r="C126">
         <v>84</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="4">
+      <c r="A127" s="3">
         <v>113008</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B127" t="s">
         <v>128</v>
       </c>
-      <c r="C127" s="5">
+      <c r="C127">
         <v>59</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="6">
+      <c r="A128" s="4">
         <v>10307</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="B128" t="s">
         <v>129</v>
       </c>
-      <c r="C128" s="5">
+      <c r="C128">
         <v>59</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="4">
+      <c r="A129" s="3">
         <v>24406</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B129" t="s">
         <v>130</v>
       </c>
-      <c r="C129" s="5">
+      <c r="C129">
         <v>84</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="6">
+      <c r="A130" s="4">
         <v>117329</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B130" t="s">
         <v>131</v>
       </c>
-      <c r="C130" s="5">
+      <c r="C130">
         <v>59</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="4">
+      <c r="A131" s="3">
         <v>107728</v>
       </c>
-      <c r="B131" s="9" t="s">
+      <c r="B131" t="s">
         <v>132</v>
       </c>
-      <c r="C131" s="5">
+      <c r="C131">
         <v>59</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="6">
+      <c r="A132" s="4">
         <v>135411</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B132" t="s">
         <v>133</v>
       </c>
-      <c r="C132" s="5">
+      <c r="C132">
         <v>59</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="4">
+      <c r="A133" s="3">
         <v>109266</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="B133" t="s">
         <v>134</v>
       </c>
-      <c r="C133" s="5">
+      <c r="C133">
         <v>59</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="6">
+      <c r="A134" s="4">
         <v>110632</v>
       </c>
-      <c r="B134" s="9" t="s">
+      <c r="B134" t="s">
         <v>135</v>
       </c>
-      <c r="C134" s="5">
+      <c r="C134">
         <v>83</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="4">
+      <c r="A135" s="3">
         <v>107715</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="B135" t="s">
         <v>136</v>
       </c>
-      <c r="C135" s="5">
+      <c r="C135">
         <v>75</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="6">
+      <c r="A136" s="4">
         <v>118771</v>
       </c>
-      <c r="B136" s="9" t="s">
+      <c r="B136" t="s">
         <v>137</v>
       </c>
-      <c r="C136" s="5">
+      <c r="C136">
         <v>59</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="4">
+      <c r="A137" s="3">
         <v>102283</v>
       </c>
-      <c r="B137" s="9" t="s">
+      <c r="B137" t="s">
         <v>138</v>
       </c>
-      <c r="C137" s="5">
+      <c r="C137">
         <v>74</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="6">
+      <c r="A138" s="4">
         <v>1736</v>
       </c>
-      <c r="B138" s="9" t="s">
+      <c r="B138" t="s">
         <v>91</v>
       </c>
-      <c r="C138" s="5">
+      <c r="C138">
         <v>71</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="4">
+      <c r="A139" s="3">
         <v>126153</v>
       </c>
-      <c r="B139" s="9" t="s">
+      <c r="B139" t="s">
         <v>139</v>
       </c>
-      <c r="C139" s="5">
+      <c r="C139">
         <v>59</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="6">
+      <c r="A140" s="4">
         <v>118718</v>
       </c>
-      <c r="B140" s="9" t="s">
+      <c r="B140" t="s">
         <v>140</v>
       </c>
-      <c r="C140" s="5">
+      <c r="C140">
         <v>84</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="4">
+      <c r="A141" s="3">
         <v>18542</v>
       </c>
-      <c r="B141" s="9" t="s">
+      <c r="B141" t="s">
         <v>141</v>
       </c>
-      <c r="C141" s="5">
+      <c r="C141">
         <v>59</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="6">
+      <c r="A142" s="4">
         <v>27291</v>
       </c>
-      <c r="B142" s="9" t="s">
+      <c r="B142" t="s">
         <v>142</v>
       </c>
-      <c r="C142" s="5">
+      <c r="C142">
         <v>59</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="4">
+      <c r="A143" s="3">
         <v>1735</v>
       </c>
-      <c r="B143" s="9" t="s">
+      <c r="B143" t="s">
         <v>143</v>
       </c>
-      <c r="C143" s="5">
+      <c r="C143">
         <v>59</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="6">
+      <c r="A144" s="4">
         <v>26187</v>
       </c>
-      <c r="B144" s="9" t="s">
+      <c r="B144" t="s">
         <v>144</v>
       </c>
-      <c r="C144" s="5">
+      <c r="C144">
         <v>75</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="7">
+      <c r="A145" s="5">
         <v>110209</v>
       </c>
-      <c r="B145" s="8" t="s">
+      <c r="B145" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C145" s="5">
+      <c r="C145">
         <v>59</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="7">
+      <c r="A146" s="5">
         <v>110092</v>
       </c>
-      <c r="B146" s="8" t="s">
+      <c r="B146" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C146" s="5">
+      <c r="C146">
         <v>59</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="7">
+      <c r="A147" s="5">
         <v>849</v>
       </c>
-      <c r="B147" s="8" t="s">
+      <c r="B147" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C147" s="5">
+      <c r="C147">
         <v>59</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="7">
+      <c r="A148" s="5">
         <v>26046</v>
       </c>
-      <c r="B148" s="8" t="s">
+      <c r="B148" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C148" s="5">
+      <c r="C148">
         <v>59</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="7">
+      <c r="A149" s="5">
         <v>11567</v>
       </c>
-      <c r="B149" s="8" t="s">
+      <c r="B149" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C149" s="5">
+      <c r="C149">
         <v>56</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="7">
+      <c r="A150" s="5">
         <v>941</v>
       </c>
-      <c r="B150" s="8" t="s">
+      <c r="B150" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C150" s="5">
+      <c r="C150">
         <v>59</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="7">
+      <c r="A151" s="5">
         <v>108064</v>
       </c>
-      <c r="B151" s="8" t="s">
+      <c r="B151" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C151" s="5">
+      <c r="C151">
         <v>59</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="7">
+      <c r="A152" s="5">
         <v>124802</v>
       </c>
-      <c r="B152" s="8" t="s">
+      <c r="B152" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C152" s="5">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="7">
+      <c r="C152">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="5">
         <v>945</v>
       </c>
-      <c r="B153" s="8" t="s">
+      <c r="B153" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C153" s="5">
+      <c r="C153">
         <v>59</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="7">
+      <c r="A154" s="5">
         <v>128515</v>
       </c>
-      <c r="B154" s="8" t="s">
+      <c r="B154" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C154" s="5">
+      <c r="C154">
         <v>59</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="7">
+      <c r="A155" s="5">
         <v>114768</v>
       </c>
-      <c r="B155" s="8" t="s">
+      <c r="B155" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C155" s="5">
+      <c r="C155">
         <v>59</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="7">
+      <c r="A156" s="5">
         <v>128027</v>
       </c>
-      <c r="B156" s="8" t="s">
+      <c r="B156" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C156" s="5">
+      <c r="C156">
         <v>59</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="7">
+      <c r="A157" s="5">
         <v>27424</v>
       </c>
-      <c r="B157" s="8" t="s">
+      <c r="B157" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C157" s="5">
+      <c r="C157">
         <v>59</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="7">
+      <c r="A158" s="5">
         <v>8104</v>
       </c>
-      <c r="B158" s="8" t="s">
+      <c r="B158" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C158" s="5">
+      <c r="C158">
         <v>58</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="7">
+      <c r="A159" s="5">
         <v>556</v>
       </c>
-      <c r="B159" s="8" t="s">
+      <c r="B159" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C159" s="5">
+      <c r="C159">
         <v>59</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="7">
+      <c r="A160" s="5">
         <v>110938</v>
       </c>
-      <c r="B160" s="8" t="s">
+      <c r="B160" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C160" s="5">
+      <c r="C160">
         <v>59</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="7">
+      <c r="A161" s="5">
         <v>103136</v>
       </c>
-      <c r="B161" s="8" t="s">
+      <c r="B161" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C161" s="5">
+      <c r="C161">
         <v>59</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="7">
+      <c r="A162" s="5">
         <v>1179</v>
       </c>
-      <c r="B162" s="8" t="s">
+      <c r="B162" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C162" s="5">
+      <c r="C162">
         <v>59</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="7">
+      <c r="A163" s="5">
         <v>110936</v>
       </c>
-      <c r="B163" s="8" t="s">
+      <c r="B163" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C163" s="5">
+      <c r="C163">
         <v>59</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="7">
+      <c r="A164" s="5">
         <v>109910</v>
       </c>
-      <c r="B164" s="8" t="s">
+      <c r="B164" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C164" s="5">
+      <c r="C164">
         <v>59</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="7">
+      <c r="A165" s="5">
         <v>2976</v>
       </c>
-      <c r="B165" s="8" t="s">
+      <c r="B165" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C165" s="5">
+      <c r="C165">
         <v>59</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="7">
+      <c r="A166" s="5">
         <v>10316</v>
       </c>
-      <c r="B166" s="8" t="s">
+      <c r="B166" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C166" s="5">
+      <c r="C166">
         <v>59</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="7">
+      <c r="A167" s="5">
         <v>111002</v>
       </c>
-      <c r="B167" s="8" t="s">
+      <c r="B167" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C167" s="5">
+      <c r="C167">
         <v>59</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="7">
+      <c r="A168" s="5">
         <v>9124</v>
       </c>
-      <c r="B168" s="8" t="s">
+      <c r="B168" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C168" s="5">
+      <c r="C168">
         <v>74</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="7">
+      <c r="A169" s="5">
         <v>119275</v>
       </c>
-      <c r="B169" s="8" t="s">
+      <c r="B169" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C169" s="5">
+      <c r="C169">
         <v>59</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="7">
+      <c r="A170" s="5">
         <v>111575</v>
       </c>
-      <c r="B170" s="8" t="s">
+      <c r="B170" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C170" s="5">
+      <c r="C170">
         <v>59</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="7">
+      <c r="A171" s="5">
         <v>119053</v>
       </c>
-      <c r="B171" s="8" t="s">
+      <c r="B171" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C171" s="5">
+      <c r="C171">
         <v>59</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="7">
+      <c r="A172" s="5">
         <v>134321</v>
       </c>
-      <c r="B172" s="8" t="s">
+      <c r="B172" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C172" s="5">
+      <c r="C172">
         <v>59</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="7">
+      <c r="A173" s="5">
         <v>124651</v>
       </c>
-      <c r="B173" s="8" t="s">
+      <c r="B173" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C173" s="5">
+      <c r="C173">
         <v>59</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="7">
+      <c r="A174" s="5">
         <v>136043</v>
       </c>
-      <c r="B174" s="8" t="s">
+      <c r="B174" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C174" s="5">
+      <c r="C174">
         <v>59</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="7">
+      <c r="A175" s="5">
         <v>26896</v>
       </c>
-      <c r="B175" s="8" t="s">
+      <c r="B175" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C175" s="5">
+      <c r="C175">
         <v>59</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="7">
+      <c r="A176" s="5">
         <v>103025</v>
       </c>
-      <c r="B176" s="8" t="s">
+      <c r="B176" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C176" s="5">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="7">
+      <c r="C176">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="5">
         <v>26869</v>
       </c>
-      <c r="B177" s="8" t="s">
+      <c r="B177" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C177" s="5">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="7">
+      <c r="C177">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="5">
         <v>156291</v>
       </c>
-      <c r="B178" s="8" t="s">
+      <c r="B178" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C178" s="5">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="7">
+      <c r="C178">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="5">
         <v>112914</v>
       </c>
-      <c r="B179" s="8" t="s">
+      <c r="B179" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C179" s="5">
+      <c r="C179">
         <v>59</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="7">
+      <c r="A180" s="5">
         <v>9354</v>
       </c>
-      <c r="B180" s="8" t="s">
+      <c r="B180" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C180" s="5">
+      <c r="C180">
         <v>84</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="4">
+      <c r="A181" s="3">
         <v>119588</v>
       </c>
-      <c r="B181" s="8" t="s">
+      <c r="B181" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C181" s="5">
+      <c r="C181">
         <v>59</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="4">
+      <c r="A182" s="3">
         <v>119155</v>
       </c>
-      <c r="B182" s="8" t="s">
+      <c r="B182" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C182" s="5">
+      <c r="C182">
         <v>59</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="4">
+      <c r="A183" s="3">
         <v>107072</v>
       </c>
-      <c r="B183" s="8" t="s">
+      <c r="B183" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C183" s="5">
+      <c r="C183">
         <v>59</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="4">
+      <c r="A184" s="3">
         <v>153402</v>
       </c>
-      <c r="B184" s="8" t="s">
+      <c r="B184" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C184" s="5">
+      <c r="C184">
         <v>59</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="4">
+      <c r="A185" s="3">
         <v>110153</v>
       </c>
-      <c r="B185" s="8" t="s">
+      <c r="B185" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C185" s="5">
+      <c r="C185">
         <v>59</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="4">
+      <c r="A186" s="3">
         <v>3467</v>
       </c>
-      <c r="B186" s="8" t="s">
+      <c r="B186" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C186" s="5">
+      <c r="C186">
         <v>59</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="4">
+      <c r="A187" s="3">
         <v>100653</v>
       </c>
-      <c r="B187" s="8" t="s">
+      <c r="B187" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C187" s="5">
+      <c r="C187">
         <v>59</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="4">
+      <c r="A188" s="3">
         <v>3470</v>
       </c>
-      <c r="B188" s="8" t="s">
+      <c r="B188" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C188" s="5">
+      <c r="C188">
         <v>59</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="4">
+      <c r="A189" s="3">
         <v>815</v>
       </c>
-      <c r="B189" s="8" t="s">
+      <c r="B189" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C189" s="5">
+      <c r="C189">
         <v>66</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="4">
+      <c r="A190" s="3">
         <v>127599</v>
       </c>
-      <c r="B190" s="8" t="s">
+      <c r="B190" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C190" s="5">
+      <c r="C190">
         <v>55</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="4">
+      <c r="A191" s="3">
         <v>107073</v>
       </c>
-      <c r="B191" s="8" t="s">
+      <c r="B191" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C191" s="5">
+      <c r="C191">
         <v>59</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="4">
+      <c r="A192" s="3">
         <v>102941</v>
       </c>
-      <c r="B192" s="8" t="s">
+      <c r="B192" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C192" s="5">
+      <c r="C192">
         <v>59</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="4">
+      <c r="A193" s="3">
         <v>8626</v>
       </c>
-      <c r="B193" s="8" t="s">
+      <c r="B193" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C193" s="5">
+      <c r="C193">
         <v>80</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="4">
+      <c r="A194" s="3">
         <v>1483</v>
       </c>
-      <c r="B194" s="8" t="s">
+      <c r="B194" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C194" s="5">
+      <c r="C194">
         <v>84</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="7">
+      <c r="A195" s="5">
         <v>1471</v>
       </c>
-      <c r="B195" s="8" t="s">
+      <c r="B195" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C195" s="5">
+      <c r="C195">
         <v>84</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="7">
+      <c r="A196" s="5">
         <v>107579</v>
       </c>
-      <c r="B196" s="8" t="s">
+      <c r="B196" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C196" s="5">
+      <c r="C196">
         <v>59</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="7">
+      <c r="A197" s="5">
         <v>2505</v>
       </c>
-      <c r="B197" s="8" t="s">
+      <c r="B197" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C197" s="5">
+      <c r="C197">
         <v>84</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="7">
+      <c r="A198" s="5">
         <v>1467</v>
       </c>
-      <c r="B198" s="8" t="s">
+      <c r="B198" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C198" s="5">
+      <c r="C198">
         <v>76</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="7">
+      <c r="A199" s="5">
         <v>154917</v>
       </c>
-      <c r="B199" s="8" t="s">
+      <c r="B199" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C199" s="5">
+      <c r="C199">
         <v>59</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="7">
+      <c r="A200" s="5">
         <v>142558</v>
       </c>
-      <c r="B200" s="8" t="s">
+      <c r="B200" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C200" s="5">
+      <c r="C200">
         <v>59</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="7">
+      <c r="A201" s="5">
         <v>3081</v>
       </c>
-      <c r="B201" s="8" t="s">
+      <c r="B201" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C201" s="5">
+      <c r="C201">
         <v>59</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="7">
+      <c r="A202" s="5">
         <v>126060</v>
       </c>
-      <c r="B202" s="8" t="s">
+      <c r="B202" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C202" s="5">
+      <c r="C202">
         <v>59</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="7">
+      <c r="A203" s="5">
         <v>102312</v>
       </c>
-      <c r="B203" s="8" t="s">
+      <c r="B203" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C203" s="5">
+      <c r="C203">
         <v>74</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="7">
+      <c r="A204" s="5">
         <v>144023</v>
       </c>
-      <c r="B204" s="8" t="s">
+      <c r="B204" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C204" s="5">
+      <c r="C204">
         <v>59</v>
       </c>
     </row>

--- a/tracking/compare/tracking-list.xlsx
+++ b/tracking/compare/tracking-list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\compare\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5025BD27-F533-4526-BC48-51D7C40929F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACB1DC5-5B54-45BF-8B83-2CF2CC1C619C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27240" yWindow="1095" windowWidth="23010" windowHeight="12330" xr2:uid="{D2D124BC-3906-40C8-BA6E-71B75F658845}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D2D124BC-3906-40C8-BA6E-71B75F658845}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="216">
   <si>
     <t>ID</t>
   </si>
@@ -637,13 +637,49 @@
   </si>
   <si>
     <t>평촌엘프라우드</t>
+  </si>
+  <si>
+    <t>자연앤힐스테이트</t>
+  </si>
+  <si>
+    <t>광교중흥에스클래스(주상복합)</t>
+  </si>
+  <si>
+    <t>광교e편한세상2차</t>
+  </si>
+  <si>
+    <t>힐스테이트영통</t>
+  </si>
+  <si>
+    <t>래미안영통마크원2단지</t>
+  </si>
+  <si>
+    <t>한양수자인에듀파크</t>
+  </si>
+  <si>
+    <t>영통라온프라이빗</t>
+  </si>
+  <si>
+    <t>영통에듀파크</t>
+  </si>
+  <si>
+    <t>건영1차</t>
+  </si>
+  <si>
+    <t>매탄위브하늘채</t>
+  </si>
+  <si>
+    <t>영흥숲푸르지오파크비엔</t>
+  </si>
+  <si>
+    <t>현대힐스테이트</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -670,8 +706,14 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -687,6 +729,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF3F3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,7 +798,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -771,6 +819,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1086,10 +1149,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A24302-B46C-46ED-B213-366C3ADB75BA}">
-  <dimension ref="A1:C204"/>
+  <dimension ref="A1:C216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="C205" sqref="C205:C216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.3"/>
@@ -3341,6 +3404,138 @@
         <v>59</v>
       </c>
     </row>
+    <row r="205" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="7">
+        <v>101273</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C205" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="8">
+        <v>111038</v>
+      </c>
+      <c r="B206" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C206" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="7">
+        <v>102119</v>
+      </c>
+      <c r="B207" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C207" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="8">
+        <v>109412</v>
+      </c>
+      <c r="B208" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C208" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="7">
+        <v>103518</v>
+      </c>
+      <c r="B209" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C209" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="8">
+        <v>105153</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C210" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="7">
+        <v>109929</v>
+      </c>
+      <c r="B211" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C211" s="11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="8">
+        <v>1804</v>
+      </c>
+      <c r="B212" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C212" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="7">
+        <v>2490</v>
+      </c>
+      <c r="B213" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C213" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="8">
+        <v>22911</v>
+      </c>
+      <c r="B214" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C214" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="7">
+        <v>135404</v>
+      </c>
+      <c r="B215" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C215" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="8">
+        <v>13698</v>
+      </c>
+      <c r="B216" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C216" s="11">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tracking/compare/tracking-list.xlsx
+++ b/tracking/compare/tracking-list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACB1DC5-5B54-45BF-8B83-2CF2CC1C619C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A47F08-E9EF-48E6-8380-C3E4FD33258B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D2D124BC-3906-40C8-BA6E-71B75F658845}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{D2D124BC-3906-40C8-BA6E-71B75F658845}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="228">
   <si>
     <t>ID</t>
   </si>
@@ -673,13 +673,49 @@
   </si>
   <si>
     <t>현대힐스테이트</t>
+  </si>
+  <si>
+    <t>진달래효성</t>
+  </si>
+  <si>
+    <t>다정한마을KCC</t>
+  </si>
+  <si>
+    <t>미리내동성</t>
+  </si>
+  <si>
+    <t>부천소사푸르지오</t>
+  </si>
+  <si>
+    <t>소새울역중흥S클래스</t>
+  </si>
+  <si>
+    <t>부천옥길호반베르디움</t>
+  </si>
+  <si>
+    <t>역곡역e편한세상</t>
+  </si>
+  <si>
+    <t>일루미스테이트</t>
+  </si>
+  <si>
+    <t>두산위브트레지움2단지</t>
+  </si>
+  <si>
+    <t>e편한세상온수</t>
+  </si>
+  <si>
+    <t>송내역파인푸르지오1단지</t>
+  </si>
+  <si>
+    <t>원종금호어울림</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -853,9 +889,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -893,7 +929,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -999,7 +1035,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1141,7 +1177,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1149,18 +1185,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A24302-B46C-46ED-B213-366C3ADB75BA}">
-  <dimension ref="A1:C216"/>
+  <dimension ref="A1:C228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="C205" sqref="C205:C216"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="G213" sqref="G213"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="10.8"/>
   <cols>
-    <col min="2" max="2" width="39.796875" customWidth="1"/>
+    <col min="2" max="2" width="39.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="13.8" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1171,7 +1207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="13.8" thickBot="1">
       <c r="A2" s="3">
         <v>113292</v>
       </c>
@@ -1182,7 +1218,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="13.8" thickBot="1">
       <c r="A3" s="4">
         <v>131685</v>
       </c>
@@ -1193,7 +1229,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="13.8" thickBot="1">
       <c r="A4" s="3">
         <v>100304</v>
       </c>
@@ -1204,7 +1240,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="13.8" thickBot="1">
       <c r="A5" s="4">
         <v>109124</v>
       </c>
@@ -1215,7 +1251,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="13.8" thickBot="1">
       <c r="A6" s="3">
         <v>113097</v>
       </c>
@@ -1226,7 +1262,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="13.8" thickBot="1">
       <c r="A7" s="4">
         <v>22491</v>
       </c>
@@ -1237,7 +1273,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="13.8" thickBot="1">
       <c r="A8" s="3">
         <v>3381</v>
       </c>
@@ -1248,7 +1284,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="13.8" thickBot="1">
       <c r="A9" s="4">
         <v>364</v>
       </c>
@@ -1259,7 +1295,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="13.8" thickBot="1">
       <c r="A10" s="3">
         <v>3280</v>
       </c>
@@ -1270,7 +1306,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="13.8" thickBot="1">
       <c r="A11" s="4">
         <v>102142</v>
       </c>
@@ -1281,7 +1317,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="13.8" thickBot="1">
       <c r="A12" s="3">
         <v>111467</v>
       </c>
@@ -1292,7 +1328,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="13.8" thickBot="1">
       <c r="A13" s="4">
         <v>115936</v>
       </c>
@@ -1303,7 +1339,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="13.8" thickBot="1">
       <c r="A14" s="3">
         <v>391</v>
       </c>
@@ -1314,7 +1350,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="13.8" thickBot="1">
       <c r="A15" s="4">
         <v>123898</v>
       </c>
@@ -1325,7 +1361,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="13.8" thickBot="1">
       <c r="A16" s="3">
         <v>27508</v>
       </c>
@@ -1336,7 +1372,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="13.8" thickBot="1">
       <c r="A17" s="4">
         <v>27570</v>
       </c>
@@ -1347,7 +1383,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="13.8" thickBot="1">
       <c r="A18" s="3">
         <v>27371</v>
       </c>
@@ -1358,7 +1394,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="13.8" thickBot="1">
       <c r="A19" s="4">
         <v>3621</v>
       </c>
@@ -1369,7 +1405,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="13.8" thickBot="1">
       <c r="A20" s="3">
         <v>2623</v>
       </c>
@@ -1380,7 +1416,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="13.8" thickBot="1">
       <c r="A21" s="4">
         <v>2797</v>
       </c>
@@ -1391,7 +1427,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="13.8" thickBot="1">
       <c r="A22" s="3">
         <v>1980</v>
       </c>
@@ -1402,7 +1438,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="13.8" thickBot="1">
       <c r="A23" s="4">
         <v>1923</v>
       </c>
@@ -1413,7 +1449,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="13.8" thickBot="1">
       <c r="A24" s="3">
         <v>1687</v>
       </c>
@@ -1424,7 +1460,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="13.8" thickBot="1">
       <c r="A25" s="4">
         <v>8297</v>
       </c>
@@ -1435,7 +1471,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="13.8" thickBot="1">
       <c r="A26" s="3">
         <v>2591</v>
       </c>
@@ -1446,7 +1482,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="13.8" thickBot="1">
       <c r="A27" s="4">
         <v>2789</v>
       </c>
@@ -1457,7 +1493,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="13.8" thickBot="1">
       <c r="A28" s="3">
         <v>1525</v>
       </c>
@@ -1468,7 +1504,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="13.8" thickBot="1">
       <c r="A29" s="4">
         <v>2537</v>
       </c>
@@ -1479,7 +1515,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="13.8" thickBot="1">
       <c r="A30" s="3">
         <v>2198</v>
       </c>
@@ -1490,7 +1526,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="13.8" thickBot="1">
       <c r="A31" s="4">
         <v>3457</v>
       </c>
@@ -1501,7 +1537,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="13.8" thickBot="1">
       <c r="A32" s="3">
         <v>2981</v>
       </c>
@@ -1512,7 +1548,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="13.8" thickBot="1">
       <c r="A33" s="4">
         <v>121987</v>
       </c>
@@ -1523,7 +1559,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="13.8" thickBot="1">
       <c r="A34" s="3">
         <v>3452</v>
       </c>
@@ -1534,7 +1570,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="13.8" thickBot="1">
       <c r="A35" s="4">
         <v>3450</v>
       </c>
@@ -1545,7 +1581,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="13.8" thickBot="1">
       <c r="A36" s="3">
         <v>1216</v>
       </c>
@@ -1556,7 +1592,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="13.8" thickBot="1">
       <c r="A37" s="4">
         <v>120522</v>
       </c>
@@ -1567,7 +1603,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="13.8" thickBot="1">
       <c r="A38" s="3">
         <v>117254</v>
       </c>
@@ -1578,7 +1614,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="13.8" thickBot="1">
       <c r="A39" s="4">
         <v>128302</v>
       </c>
@@ -1589,7 +1625,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="13.8" thickBot="1">
       <c r="A40" s="5">
         <v>111396</v>
       </c>
@@ -1600,7 +1636,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="13.8" thickBot="1">
       <c r="A41" s="5">
         <v>103797</v>
       </c>
@@ -1611,7 +1647,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="13.8" thickBot="1">
       <c r="A42" s="5">
         <v>113059</v>
       </c>
@@ -1622,7 +1658,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="13.8" thickBot="1">
       <c r="A43" s="5">
         <v>125111</v>
       </c>
@@ -1633,7 +1669,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="13.8" thickBot="1">
       <c r="A44" s="5">
         <v>133184</v>
       </c>
@@ -1644,7 +1680,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="13.8" thickBot="1">
       <c r="A45" s="5">
         <v>26192</v>
       </c>
@@ -1655,7 +1691,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="13.8" thickBot="1">
       <c r="A46" s="5">
         <v>3376</v>
       </c>
@@ -1666,7 +1702,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="13.8" thickBot="1">
       <c r="A47" s="5">
         <v>22636</v>
       </c>
@@ -1677,7 +1713,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="13.8" thickBot="1">
       <c r="A48" s="5">
         <v>119787</v>
       </c>
@@ -1688,7 +1724,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="13.8" thickBot="1">
       <c r="A49" s="5">
         <v>112482</v>
       </c>
@@ -1699,7 +1735,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="13.8" thickBot="1">
       <c r="A50" s="5">
         <v>8199</v>
       </c>
@@ -1710,7 +1746,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="13.8" thickBot="1">
       <c r="A51" s="5">
         <v>8791</v>
       </c>
@@ -1721,7 +1757,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="13.8" thickBot="1">
       <c r="A52" s="4">
         <v>111555</v>
       </c>
@@ -1732,7 +1768,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="13.8" thickBot="1">
       <c r="A53" s="3">
         <v>120540</v>
       </c>
@@ -1743,7 +1779,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="13.8" thickBot="1">
       <c r="A54" s="4">
         <v>3093</v>
       </c>
@@ -1754,7 +1790,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="13.8" thickBot="1">
       <c r="A55" s="3">
         <v>102536</v>
       </c>
@@ -1765,7 +1801,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="13.8" thickBot="1">
       <c r="A56" s="4">
         <v>8484</v>
       </c>
@@ -1776,7 +1812,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="13.8" thickBot="1">
       <c r="A57" s="3">
         <v>109948</v>
       </c>
@@ -1787,7 +1823,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="13.8" thickBot="1">
       <c r="A58" s="4">
         <v>115593</v>
       </c>
@@ -1798,7 +1834,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="13.8" thickBot="1">
       <c r="A59" s="3">
         <v>9390</v>
       </c>
@@ -1809,7 +1845,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="13.8" thickBot="1">
       <c r="A60" s="4">
         <v>126607</v>
       </c>
@@ -1820,7 +1856,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="13.8" thickBot="1">
       <c r="A61" s="3">
         <v>8292</v>
       </c>
@@ -1831,7 +1867,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="13.8" thickBot="1">
       <c r="A62" s="4">
         <v>2535</v>
       </c>
@@ -1842,7 +1878,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="13.8" thickBot="1">
       <c r="A63" s="3">
         <v>24301</v>
       </c>
@@ -1853,7 +1889,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" ht="13.8" thickBot="1">
       <c r="A64" s="4">
         <v>119652</v>
       </c>
@@ -1864,7 +1900,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="13.8" thickBot="1">
       <c r="A65" s="3">
         <v>105414</v>
       </c>
@@ -1875,7 +1911,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="13.8" thickBot="1">
       <c r="A66" s="4">
         <v>107542</v>
       </c>
@@ -1886,7 +1922,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="13.8" thickBot="1">
       <c r="A67" s="3">
         <v>19204</v>
       </c>
@@ -1897,7 +1933,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="13.8" thickBot="1">
       <c r="A68" s="4">
         <v>19672</v>
       </c>
@@ -1908,7 +1944,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="13.8" thickBot="1">
       <c r="A69" s="3">
         <v>26216</v>
       </c>
@@ -1919,7 +1955,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" ht="13.8" thickBot="1">
       <c r="A70" s="4">
         <v>113538</v>
       </c>
@@ -1930,7 +1966,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="13.8" thickBot="1">
       <c r="A71" s="3">
         <v>114379</v>
       </c>
@@ -1941,7 +1977,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="13.8" thickBot="1">
       <c r="A72" s="4">
         <v>114415</v>
       </c>
@@ -1952,7 +1988,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="13.8" thickBot="1">
       <c r="A73" s="3">
         <v>115473</v>
       </c>
@@ -1963,7 +1999,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="13.8" thickBot="1">
       <c r="A74" s="4">
         <v>119469</v>
       </c>
@@ -1974,7 +2010,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="13.8" thickBot="1">
       <c r="A75" s="3">
         <v>111626</v>
       </c>
@@ -1985,7 +2021,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="13.8" thickBot="1">
       <c r="A76" s="4">
         <v>22746</v>
       </c>
@@ -1996,7 +2032,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" ht="13.8" thickBot="1">
       <c r="A77" s="3">
         <v>22675</v>
       </c>
@@ -2007,7 +2043,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" ht="13.8" thickBot="1">
       <c r="A78" s="4">
         <v>15011</v>
       </c>
@@ -2018,7 +2054,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="13.8" thickBot="1">
       <c r="A79" s="3">
         <v>111515</v>
       </c>
@@ -2029,7 +2065,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" ht="13.8" thickBot="1">
       <c r="A80" s="4">
         <v>103139</v>
       </c>
@@ -2040,7 +2076,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="13.8" thickBot="1">
       <c r="A81" s="3">
         <v>610</v>
       </c>
@@ -2051,7 +2087,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" ht="13.8" thickBot="1">
       <c r="A82" s="4">
         <v>107544</v>
       </c>
@@ -2062,7 +2098,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" ht="13.8" thickBot="1">
       <c r="A83" s="3">
         <v>104126</v>
       </c>
@@ -2073,7 +2109,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" ht="13.8" thickBot="1">
       <c r="A84" s="4">
         <v>26107</v>
       </c>
@@ -2084,7 +2120,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="13.8" thickBot="1">
       <c r="A85" s="3">
         <v>115046</v>
       </c>
@@ -2095,7 +2131,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" ht="13.8" thickBot="1">
       <c r="A86" s="4">
         <v>127132</v>
       </c>
@@ -2106,7 +2142,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" ht="13.8" thickBot="1">
       <c r="A87" s="3">
         <v>102313</v>
       </c>
@@ -2117,7 +2153,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="13.8" thickBot="1">
       <c r="A88" s="4">
         <v>114809</v>
       </c>
@@ -2128,7 +2164,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" ht="13.8" thickBot="1">
       <c r="A89" s="3">
         <v>2988</v>
       </c>
@@ -2139,7 +2175,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" ht="13.8" thickBot="1">
       <c r="A90" s="4">
         <v>3034</v>
       </c>
@@ -2150,7 +2186,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" ht="13.8" thickBot="1">
       <c r="A91" s="3">
         <v>148337</v>
       </c>
@@ -2161,7 +2197,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" ht="13.8" thickBot="1">
       <c r="A92" s="4">
         <v>8877</v>
       </c>
@@ -2172,7 +2208,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" ht="13.8" thickBot="1">
       <c r="A93" s="3">
         <v>3333</v>
       </c>
@@ -2183,7 +2219,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" ht="13.8" thickBot="1">
       <c r="A94" s="4">
         <v>19220</v>
       </c>
@@ -2194,7 +2230,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" ht="13.8" thickBot="1">
       <c r="A95" s="3">
         <v>8895</v>
       </c>
@@ -2205,7 +2241,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" ht="13.8" thickBot="1">
       <c r="A96" s="4">
         <v>18210</v>
       </c>
@@ -2216,7 +2252,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" ht="13.8" thickBot="1">
       <c r="A97" s="3">
         <v>109379</v>
       </c>
@@ -2227,7 +2263,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" ht="13.8" thickBot="1">
       <c r="A98" s="4">
         <v>22124</v>
       </c>
@@ -2238,7 +2274,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" ht="13.8" thickBot="1">
       <c r="A99" s="3">
         <v>22788</v>
       </c>
@@ -2249,7 +2285,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" ht="13.8" thickBot="1">
       <c r="A100" s="4">
         <v>109250</v>
       </c>
@@ -2260,7 +2296,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" ht="13.8" thickBot="1">
       <c r="A101" s="3">
         <v>3832</v>
       </c>
@@ -2271,7 +2307,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" ht="13.8" thickBot="1">
       <c r="A102" s="4">
         <v>107404</v>
       </c>
@@ -2282,7 +2318,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" ht="13.8" thickBot="1">
       <c r="A103" s="3">
         <v>100310</v>
       </c>
@@ -2293,7 +2329,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" ht="13.8" thickBot="1">
       <c r="A104" s="4">
         <v>27820</v>
       </c>
@@ -2304,7 +2340,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" ht="13.8" thickBot="1">
       <c r="A105" s="3">
         <v>24845</v>
       </c>
@@ -2315,7 +2351,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" ht="13.8" thickBot="1">
       <c r="A106" s="4">
         <v>24911</v>
       </c>
@@ -2326,7 +2362,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" ht="13.8" thickBot="1">
       <c r="A107" s="3">
         <v>3833</v>
       </c>
@@ -2337,7 +2373,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" ht="13.8" thickBot="1">
       <c r="A108" s="4">
         <v>1238</v>
       </c>
@@ -2348,7 +2384,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" ht="13.8" thickBot="1">
       <c r="A109" s="3">
         <v>111330</v>
       </c>
@@ -2359,7 +2395,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" ht="13.8" thickBot="1">
       <c r="A110" s="4">
         <v>126062</v>
       </c>
@@ -2370,7 +2406,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" ht="13.8" thickBot="1">
       <c r="A111" s="3">
         <v>26160</v>
       </c>
@@ -2381,7 +2417,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" ht="13.8" thickBot="1">
       <c r="A112" s="4">
         <v>26834</v>
       </c>
@@ -2392,7 +2428,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" ht="13.8" thickBot="1">
       <c r="A113" s="3">
         <v>25827</v>
       </c>
@@ -2403,7 +2439,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" ht="13.8" thickBot="1">
       <c r="A114" s="4">
         <v>1191</v>
       </c>
@@ -2414,7 +2450,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" ht="13.8" thickBot="1">
       <c r="A115" s="3">
         <v>9348</v>
       </c>
@@ -2425,7 +2461,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" ht="13.8" thickBot="1">
       <c r="A116" s="4">
         <v>109051</v>
       </c>
@@ -2436,7 +2472,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" ht="13.8" thickBot="1">
       <c r="A117" s="3">
         <v>127574</v>
       </c>
@@ -2447,7 +2483,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" ht="13.8" thickBot="1">
       <c r="A118" s="4">
         <v>122863</v>
       </c>
@@ -2458,7 +2494,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" ht="13.8" thickBot="1">
       <c r="A119" s="3">
         <v>2990</v>
       </c>
@@ -2469,7 +2505,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" ht="13.8" thickBot="1">
       <c r="A120" s="4">
         <v>114972</v>
       </c>
@@ -2480,7 +2516,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" ht="13.8" thickBot="1">
       <c r="A121" s="3">
         <v>659</v>
       </c>
@@ -2491,7 +2527,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" ht="13.8" thickBot="1">
       <c r="A122" s="4">
         <v>1204</v>
       </c>
@@ -2502,7 +2538,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" ht="13.8" thickBot="1">
       <c r="A123" s="3">
         <v>3774</v>
       </c>
@@ -2513,7 +2549,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" ht="13.8" thickBot="1">
       <c r="A124" s="4">
         <v>121979</v>
       </c>
@@ -2524,7 +2560,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" ht="13.8" thickBot="1">
       <c r="A125" s="3">
         <v>130826</v>
       </c>
@@ -2535,7 +2571,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" ht="13.8" thickBot="1">
       <c r="A126" s="4">
         <v>17469</v>
       </c>
@@ -2546,7 +2582,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" ht="13.8" thickBot="1">
       <c r="A127" s="3">
         <v>113008</v>
       </c>
@@ -2557,7 +2593,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" ht="13.8" thickBot="1">
       <c r="A128" s="4">
         <v>10307</v>
       </c>
@@ -2568,7 +2604,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" ht="13.8" thickBot="1">
       <c r="A129" s="3">
         <v>24406</v>
       </c>
@@ -2579,7 +2615,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" ht="13.8" thickBot="1">
       <c r="A130" s="4">
         <v>117329</v>
       </c>
@@ -2590,7 +2626,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" ht="13.8" thickBot="1">
       <c r="A131" s="3">
         <v>107728</v>
       </c>
@@ -2601,7 +2637,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" ht="13.8" thickBot="1">
       <c r="A132" s="4">
         <v>135411</v>
       </c>
@@ -2612,7 +2648,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" ht="13.8" thickBot="1">
       <c r="A133" s="3">
         <v>109266</v>
       </c>
@@ -2623,7 +2659,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" ht="13.8" thickBot="1">
       <c r="A134" s="4">
         <v>110632</v>
       </c>
@@ -2634,7 +2670,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" ht="13.8" thickBot="1">
       <c r="A135" s="3">
         <v>107715</v>
       </c>
@@ -2645,7 +2681,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" ht="13.8" thickBot="1">
       <c r="A136" s="4">
         <v>118771</v>
       </c>
@@ -2656,7 +2692,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" ht="13.8" thickBot="1">
       <c r="A137" s="3">
         <v>102283</v>
       </c>
@@ -2667,7 +2703,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" ht="13.8" thickBot="1">
       <c r="A138" s="4">
         <v>1736</v>
       </c>
@@ -2678,7 +2714,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" ht="13.8" thickBot="1">
       <c r="A139" s="3">
         <v>126153</v>
       </c>
@@ -2689,7 +2725,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" ht="13.8" thickBot="1">
       <c r="A140" s="4">
         <v>118718</v>
       </c>
@@ -2700,7 +2736,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" ht="13.8" thickBot="1">
       <c r="A141" s="3">
         <v>18542</v>
       </c>
@@ -2711,7 +2747,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" ht="13.8" thickBot="1">
       <c r="A142" s="4">
         <v>27291</v>
       </c>
@@ -2722,7 +2758,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" ht="13.8" thickBot="1">
       <c r="A143" s="3">
         <v>1735</v>
       </c>
@@ -2733,7 +2769,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" ht="13.8" thickBot="1">
       <c r="A144" s="4">
         <v>26187</v>
       </c>
@@ -2744,7 +2780,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" ht="13.8" thickBot="1">
       <c r="A145" s="5">
         <v>110209</v>
       </c>
@@ -2755,7 +2791,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" ht="13.8" thickBot="1">
       <c r="A146" s="5">
         <v>110092</v>
       </c>
@@ -2766,7 +2802,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" ht="13.8" thickBot="1">
       <c r="A147" s="5">
         <v>849</v>
       </c>
@@ -2777,7 +2813,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" ht="13.8" thickBot="1">
       <c r="A148" s="5">
         <v>26046</v>
       </c>
@@ -2788,7 +2824,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" ht="13.8" thickBot="1">
       <c r="A149" s="5">
         <v>11567</v>
       </c>
@@ -2799,7 +2835,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" ht="13.8" thickBot="1">
       <c r="A150" s="5">
         <v>941</v>
       </c>
@@ -2810,7 +2846,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" ht="13.8" thickBot="1">
       <c r="A151" s="5">
         <v>108064</v>
       </c>
@@ -2821,7 +2857,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" ht="13.8" thickBot="1">
       <c r="A152" s="5">
         <v>124802</v>
       </c>
@@ -2832,7 +2868,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" ht="13.8" thickBot="1">
       <c r="A153" s="5">
         <v>945</v>
       </c>
@@ -2843,7 +2879,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" ht="13.8" thickBot="1">
       <c r="A154" s="5">
         <v>128515</v>
       </c>
@@ -2854,7 +2890,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" ht="13.8" thickBot="1">
       <c r="A155" s="5">
         <v>114768</v>
       </c>
@@ -2865,7 +2901,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" ht="13.8" thickBot="1">
       <c r="A156" s="5">
         <v>128027</v>
       </c>
@@ -2876,7 +2912,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" ht="13.8" thickBot="1">
       <c r="A157" s="5">
         <v>27424</v>
       </c>
@@ -2887,7 +2923,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" ht="13.8" thickBot="1">
       <c r="A158" s="5">
         <v>8104</v>
       </c>
@@ -2898,7 +2934,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" ht="13.8" thickBot="1">
       <c r="A159" s="5">
         <v>556</v>
       </c>
@@ -2909,7 +2945,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" ht="13.8" thickBot="1">
       <c r="A160" s="5">
         <v>110938</v>
       </c>
@@ -2920,7 +2956,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" ht="13.8" thickBot="1">
       <c r="A161" s="5">
         <v>103136</v>
       </c>
@@ -2931,7 +2967,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" ht="13.8" thickBot="1">
       <c r="A162" s="5">
         <v>1179</v>
       </c>
@@ -2942,7 +2978,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" ht="13.8" thickBot="1">
       <c r="A163" s="5">
         <v>110936</v>
       </c>
@@ -2953,7 +2989,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" ht="13.8" thickBot="1">
       <c r="A164" s="5">
         <v>109910</v>
       </c>
@@ -2964,7 +3000,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" ht="13.8" thickBot="1">
       <c r="A165" s="5">
         <v>2976</v>
       </c>
@@ -2975,7 +3011,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" ht="13.8" thickBot="1">
       <c r="A166" s="5">
         <v>10316</v>
       </c>
@@ -2986,7 +3022,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" ht="13.8" thickBot="1">
       <c r="A167" s="5">
         <v>111002</v>
       </c>
@@ -2997,7 +3033,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" ht="13.8" thickBot="1">
       <c r="A168" s="5">
         <v>9124</v>
       </c>
@@ -3008,7 +3044,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" ht="13.8" thickBot="1">
       <c r="A169" s="5">
         <v>119275</v>
       </c>
@@ -3019,7 +3055,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" ht="13.8" thickBot="1">
       <c r="A170" s="5">
         <v>111575</v>
       </c>
@@ -3030,7 +3066,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" ht="13.8" thickBot="1">
       <c r="A171" s="5">
         <v>119053</v>
       </c>
@@ -3041,7 +3077,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" ht="13.8" thickBot="1">
       <c r="A172" s="5">
         <v>134321</v>
       </c>
@@ -3052,7 +3088,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" ht="13.8" thickBot="1">
       <c r="A173" s="5">
         <v>124651</v>
       </c>
@@ -3063,7 +3099,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" ht="13.8" thickBot="1">
       <c r="A174" s="5">
         <v>136043</v>
       </c>
@@ -3074,7 +3110,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" ht="13.8" thickBot="1">
       <c r="A175" s="5">
         <v>26896</v>
       </c>
@@ -3085,7 +3121,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" ht="13.8" thickBot="1">
       <c r="A176" s="5">
         <v>103025</v>
       </c>
@@ -3096,7 +3132,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" ht="13.8" thickBot="1">
       <c r="A177" s="5">
         <v>26869</v>
       </c>
@@ -3107,7 +3143,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" ht="13.8" thickBot="1">
       <c r="A178" s="5">
         <v>156291</v>
       </c>
@@ -3118,7 +3154,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" ht="13.8" thickBot="1">
       <c r="A179" s="5">
         <v>112914</v>
       </c>
@@ -3129,7 +3165,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" ht="13.8" thickBot="1">
       <c r="A180" s="5">
         <v>9354</v>
       </c>
@@ -3140,7 +3176,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" ht="13.8" thickBot="1">
       <c r="A181" s="3">
         <v>119588</v>
       </c>
@@ -3151,7 +3187,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" ht="13.8" thickBot="1">
       <c r="A182" s="3">
         <v>119155</v>
       </c>
@@ -3162,7 +3198,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" ht="13.8" thickBot="1">
       <c r="A183" s="3">
         <v>107072</v>
       </c>
@@ -3173,7 +3209,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" ht="13.8" thickBot="1">
       <c r="A184" s="3">
         <v>153402</v>
       </c>
@@ -3184,7 +3220,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" ht="13.8" thickBot="1">
       <c r="A185" s="3">
         <v>110153</v>
       </c>
@@ -3195,7 +3231,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" ht="13.8" thickBot="1">
       <c r="A186" s="3">
         <v>3467</v>
       </c>
@@ -3206,7 +3242,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" ht="13.8" thickBot="1">
       <c r="A187" s="3">
         <v>100653</v>
       </c>
@@ -3217,7 +3253,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" ht="13.8" thickBot="1">
       <c r="A188" s="3">
         <v>3470</v>
       </c>
@@ -3228,7 +3264,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" ht="13.8" thickBot="1">
       <c r="A189" s="3">
         <v>815</v>
       </c>
@@ -3239,7 +3275,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" ht="13.8" thickBot="1">
       <c r="A190" s="3">
         <v>127599</v>
       </c>
@@ -3250,7 +3286,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" ht="13.8" thickBot="1">
       <c r="A191" s="3">
         <v>107073</v>
       </c>
@@ -3261,7 +3297,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" ht="13.8" thickBot="1">
       <c r="A192" s="3">
         <v>102941</v>
       </c>
@@ -3272,7 +3308,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" ht="13.8" thickBot="1">
       <c r="A193" s="3">
         <v>8626</v>
       </c>
@@ -3283,7 +3319,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" ht="13.8" thickBot="1">
       <c r="A194" s="3">
         <v>1483</v>
       </c>
@@ -3294,7 +3330,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" ht="13.8" thickBot="1">
       <c r="A195" s="5">
         <v>1471</v>
       </c>
@@ -3305,7 +3341,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" ht="13.8" thickBot="1">
       <c r="A196" s="5">
         <v>107579</v>
       </c>
@@ -3316,7 +3352,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" ht="13.8" thickBot="1">
       <c r="A197" s="5">
         <v>2505</v>
       </c>
@@ -3327,7 +3363,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" ht="13.8" thickBot="1">
       <c r="A198" s="5">
         <v>1467</v>
       </c>
@@ -3338,7 +3374,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" ht="13.8" thickBot="1">
       <c r="A199" s="5">
         <v>154917</v>
       </c>
@@ -3349,7 +3385,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" ht="13.8" thickBot="1">
       <c r="A200" s="5">
         <v>142558</v>
       </c>
@@ -3360,7 +3396,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" ht="13.8" thickBot="1">
       <c r="A201" s="5">
         <v>3081</v>
       </c>
@@ -3371,7 +3407,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" ht="13.8" thickBot="1">
       <c r="A202" s="5">
         <v>126060</v>
       </c>
@@ -3382,7 +3418,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" ht="13.8" thickBot="1">
       <c r="A203" s="5">
         <v>102312</v>
       </c>
@@ -3393,7 +3429,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" ht="13.8" thickBot="1">
       <c r="A204" s="5">
         <v>144023</v>
       </c>
@@ -3404,7 +3440,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" ht="13.8" thickBot="1">
       <c r="A205" s="7">
         <v>101273</v>
       </c>
@@ -3415,7 +3451,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" ht="13.8" thickBot="1">
       <c r="A206" s="8">
         <v>111038</v>
       </c>
@@ -3426,7 +3462,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" ht="13.8" thickBot="1">
       <c r="A207" s="7">
         <v>102119</v>
       </c>
@@ -3437,7 +3473,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" ht="13.8" thickBot="1">
       <c r="A208" s="8">
         <v>109412</v>
       </c>
@@ -3448,7 +3484,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" ht="13.8" thickBot="1">
       <c r="A209" s="7">
         <v>103518</v>
       </c>
@@ -3459,7 +3495,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" ht="13.8" thickBot="1">
       <c r="A210" s="8">
         <v>105153</v>
       </c>
@@ -3470,7 +3506,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" ht="13.8" thickBot="1">
       <c r="A211" s="7">
         <v>109929</v>
       </c>
@@ -3481,7 +3517,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" ht="13.8" thickBot="1">
       <c r="A212" s="8">
         <v>1804</v>
       </c>
@@ -3492,7 +3528,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" ht="13.8" thickBot="1">
       <c r="A213" s="7">
         <v>2490</v>
       </c>
@@ -3503,7 +3539,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" ht="13.8" thickBot="1">
       <c r="A214" s="8">
         <v>22911</v>
       </c>
@@ -3514,7 +3550,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" ht="13.8" thickBot="1">
       <c r="A215" s="7">
         <v>135404</v>
       </c>
@@ -3525,7 +3561,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" ht="13.8" thickBot="1">
       <c r="A216" s="8">
         <v>13698</v>
       </c>
@@ -3533,6 +3569,138 @@
         <v>215</v>
       </c>
       <c r="C216" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A217" s="5">
+        <v>3615</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C217" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A218" s="5">
+        <v>8247</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C218" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A219" s="5">
+        <v>1420</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C219" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A220" s="5">
+        <v>103865</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C220" s="11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A221" s="5">
+        <v>14462</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C221" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A222" s="5">
+        <v>110681</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C222" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A223" s="5">
+        <v>102622</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C223" s="11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A224" s="5">
+        <v>127082</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C224" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A225" s="7">
+        <v>27540</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C225" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A226" s="8">
+        <v>120265</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C226" s="11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A227" s="7">
+        <v>108756</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C227" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A228" s="7">
+        <v>102634</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C228" s="11">
         <v>84</v>
       </c>
     </row>

--- a/tracking/compare/tracking-list.xlsx
+++ b/tracking/compare/tracking-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A47F08-E9EF-48E6-8380-C3E4FD33258B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC60BA3C-2973-4640-B286-8CBFC09E5E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{D2D124BC-3906-40C8-BA6E-71B75F658845}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="240">
   <si>
     <t>ID</t>
   </si>
@@ -709,6 +709,42 @@
   </si>
   <si>
     <t>원종금호어울림</t>
+  </si>
+  <si>
+    <t>신도림4차e-편한세상</t>
+  </si>
+  <si>
+    <t>신도림동아2차</t>
+  </si>
+  <si>
+    <t>신도림대림1,2차(e편한세상)</t>
+  </si>
+  <si>
+    <t>고척파크푸르지오</t>
+  </si>
+  <si>
+    <t>개봉아이파크</t>
+  </si>
+  <si>
+    <t>개봉푸르지오</t>
+  </si>
+  <si>
+    <t>신도림태영타운</t>
+  </si>
+  <si>
+    <t>삼성래미안</t>
+  </si>
+  <si>
+    <t>천왕이펜하우스4단지</t>
+  </si>
+  <si>
+    <t>한양수자인에듀힐즈</t>
+  </si>
+  <si>
+    <t>하버라인2단지</t>
+  </si>
+  <si>
+    <t>온수힐스테이트</t>
   </si>
 </sst>
 </file>
@@ -834,7 +870,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -870,6 +906,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1185,10 +1224,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A24302-B46C-46ED-B213-366C3ADB75BA}">
-  <dimension ref="A1:C228"/>
+  <dimension ref="A1:C241"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="G213" sqref="G213"/>
+      <selection activeCell="T213" sqref="T213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.8"/>
@@ -3573,134 +3612,277 @@
       </c>
     </row>
     <row r="217" spans="1:3" ht="13.8" thickBot="1">
-      <c r="A217" s="5">
+      <c r="A217" s="3">
+        <v>3356</v>
+      </c>
+      <c r="B217" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C217" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A218" s="4">
+        <v>3209</v>
+      </c>
+      <c r="B218" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C218" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A219" s="3">
+        <v>3354</v>
+      </c>
+      <c r="B219" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C219" s="11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A220" s="3">
+        <v>25853</v>
+      </c>
+      <c r="B220" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C220" s="11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A221" s="3">
+        <v>17538</v>
+      </c>
+      <c r="B221" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C221" s="11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A222" s="3">
+        <v>104934</v>
+      </c>
+      <c r="B222" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C222" s="11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A223" s="3">
+        <v>3204</v>
+      </c>
+      <c r="B223" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C223" s="11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A224" s="3">
+        <v>8073</v>
+      </c>
+      <c r="B224" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C224" s="11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A225" s="3">
+        <v>103269</v>
+      </c>
+      <c r="B225" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C225" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A226" s="3">
+        <v>119166</v>
+      </c>
+      <c r="B226" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C226" s="11">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A227" s="5">
+        <v>103269</v>
+      </c>
+      <c r="B227" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C227" s="11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A228" s="5">
+        <v>26639</v>
+      </c>
+      <c r="B228" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C228" s="11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A229" s="8">
+        <v>13698</v>
+      </c>
+      <c r="B229" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C229" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A230" s="5">
         <v>3615</v>
       </c>
-      <c r="B217" s="6" t="s">
+      <c r="B230" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C217" s="11">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="13.8" thickBot="1">
-      <c r="A218" s="5">
+      <c r="C230" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A231" s="5">
         <v>8247</v>
       </c>
-      <c r="B218" s="6" t="s">
+      <c r="B231" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C218" s="11">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="13.8" thickBot="1">
-      <c r="A219" s="5">
+      <c r="C231" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A232" s="5">
         <v>1420</v>
       </c>
-      <c r="B219" s="6" t="s">
+      <c r="B232" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C219" s="11">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" ht="13.8" thickBot="1">
-      <c r="A220" s="5">
+      <c r="C232" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A233" s="5">
         <v>103865</v>
       </c>
-      <c r="B220" s="6" t="s">
+      <c r="B233" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C220" s="11">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" ht="13.8" thickBot="1">
-      <c r="A221" s="5">
+      <c r="C233" s="11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A234" s="5">
         <v>14462</v>
       </c>
-      <c r="B221" s="6" t="s">
+      <c r="B234" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C221" s="11">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" ht="13.8" thickBot="1">
-      <c r="A222" s="5">
+      <c r="C234" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A235" s="5">
         <v>110681</v>
       </c>
-      <c r="B222" s="6" t="s">
+      <c r="B235" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C222" s="11">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" ht="13.8" thickBot="1">
-      <c r="A223" s="5">
+      <c r="C235" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A236" s="5">
         <v>102622</v>
       </c>
-      <c r="B223" s="6" t="s">
+      <c r="B236" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C223" s="11">
+      <c r="C236" s="11">
         <v>66</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="13.8" thickBot="1">
-      <c r="A224" s="5">
+    <row r="237" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A237" s="5">
         <v>127082</v>
       </c>
-      <c r="B224" s="6" t="s">
+      <c r="B237" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C224" s="11">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" ht="13.8" thickBot="1">
-      <c r="A225" s="7">
+      <c r="C237" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A238" s="7">
         <v>27540</v>
       </c>
-      <c r="B225" s="6" t="s">
+      <c r="B238" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C225" s="11">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" ht="13.8" thickBot="1">
-      <c r="A226" s="8">
+      <c r="C238" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A239" s="8">
         <v>120265</v>
       </c>
-      <c r="B226" s="6" t="s">
+      <c r="B239" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C226" s="11">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" ht="13.8" thickBot="1">
-      <c r="A227" s="7">
+      <c r="C239" s="11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A240" s="7">
         <v>108756</v>
       </c>
-      <c r="B227" s="6" t="s">
+      <c r="B240" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C227" s="11">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" ht="13.8" thickBot="1">
-      <c r="A228" s="7">
+      <c r="C240" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A241" s="7">
         <v>102634</v>
       </c>
-      <c r="B228" s="6" t="s">
+      <c r="B241" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C228" s="11">
+      <c r="C241" s="11">
         <v>84</v>
       </c>
     </row>

--- a/tracking/compare/tracking-list.xlsx
+++ b/tracking/compare/tracking-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC60BA3C-2973-4640-B286-8CBFC09E5E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D3185C-33AF-4AD9-B338-CC1C3820DF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{D2D124BC-3906-40C8-BA6E-71B75F658845}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="240">
   <si>
     <t>ID</t>
   </si>
@@ -1224,10 +1224,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A24302-B46C-46ED-B213-366C3ADB75BA}">
-  <dimension ref="A1:C241"/>
+  <dimension ref="A1:C240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="T213" sqref="T213"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="K227" sqref="K227:L227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.8"/>
@@ -3744,11 +3744,11 @@
       </c>
     </row>
     <row r="229" spans="1:3" ht="13.8" thickBot="1">
-      <c r="A229" s="8">
-        <v>13698</v>
-      </c>
-      <c r="B229" s="9" t="s">
-        <v>215</v>
+      <c r="A229" s="5">
+        <v>3615</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>216</v>
       </c>
       <c r="C229" s="11">
         <v>84</v>
@@ -3756,10 +3756,10 @@
     </row>
     <row r="230" spans="1:3" ht="13.8" thickBot="1">
       <c r="A230" s="5">
-        <v>3615</v>
+        <v>8247</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C230" s="11">
         <v>84</v>
@@ -3767,10 +3767,10 @@
     </row>
     <row r="231" spans="1:3" ht="13.8" thickBot="1">
       <c r="A231" s="5">
-        <v>8247</v>
+        <v>1420</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C231" s="11">
         <v>84</v>
@@ -3778,32 +3778,32 @@
     </row>
     <row r="232" spans="1:3" ht="13.8" thickBot="1">
       <c r="A232" s="5">
-        <v>1420</v>
+        <v>103865</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C232" s="11">
-        <v>84</v>
+        <v>59</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="13.8" thickBot="1">
       <c r="A233" s="5">
-        <v>103865</v>
+        <v>14462</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C233" s="11">
-        <v>59</v>
+        <v>84</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="13.8" thickBot="1">
       <c r="A234" s="5">
-        <v>14462</v>
+        <v>110681</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C234" s="11">
         <v>84</v>
@@ -3811,78 +3811,67 @@
     </row>
     <row r="235" spans="1:3" ht="13.8" thickBot="1">
       <c r="A235" s="5">
-        <v>110681</v>
+        <v>102622</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C235" s="11">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="13.8" thickBot="1">
       <c r="A236" s="5">
-        <v>102622</v>
+        <v>127082</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C236" s="11">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="13.8" thickBot="1">
-      <c r="A237" s="5">
-        <v>127082</v>
+      <c r="A237" s="7">
+        <v>27540</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C237" s="11">
         <v>84</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="13.8" thickBot="1">
-      <c r="A238" s="7">
-        <v>27540</v>
+      <c r="A238" s="8">
+        <v>120265</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C238" s="11">
-        <v>84</v>
+        <v>59</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="13.8" thickBot="1">
-      <c r="A239" s="8">
-        <v>120265</v>
+      <c r="A239" s="7">
+        <v>108756</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C239" s="11">
-        <v>59</v>
+        <v>84</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="13.8" thickBot="1">
       <c r="A240" s="7">
-        <v>108756</v>
+        <v>102634</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C240" s="11">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" ht="13.8" thickBot="1">
-      <c r="A241" s="7">
-        <v>102634</v>
-      </c>
-      <c r="B241" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C241" s="11">
         <v>84</v>
       </c>
     </row>

--- a/tracking/compare/tracking-list.xlsx
+++ b/tracking/compare/tracking-list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D3185C-33AF-4AD9-B338-CC1C3820DF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA00B5D-5C55-49D7-941A-AE7BA8E7252E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{D2D124BC-3906-40C8-BA6E-71B75F658845}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2D124BC-3906-40C8-BA6E-71B75F658845}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="252">
   <si>
     <t>ID</t>
   </si>
@@ -745,13 +745,49 @@
   </si>
   <si>
     <t>온수힐스테이트</t>
+  </si>
+  <si>
+    <t>래미안하이어스</t>
+  </si>
+  <si>
+    <t>솔거대림</t>
+  </si>
+  <si>
+    <t>세종주공6단지</t>
+  </si>
+  <si>
+    <t>힐스테이트금정역(주상복합)</t>
+  </si>
+  <si>
+    <t>금정쌍용</t>
+  </si>
+  <si>
+    <t>율곡주공3단지</t>
+  </si>
+  <si>
+    <t>군포대야미e-편한세상</t>
+  </si>
+  <si>
+    <t>가야주공5단지1차</t>
+  </si>
+  <si>
+    <t>한양수리</t>
+  </si>
+  <si>
+    <t>의왕역센트럴시티</t>
+  </si>
+  <si>
+    <t>청천마을대우</t>
+  </si>
+  <si>
+    <t>무지개마을대림</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -928,9 +964,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -968,7 +1004,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1074,7 +1110,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1216,7 +1252,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1224,18 +1260,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A24302-B46C-46ED-B213-366C3ADB75BA}">
-  <dimension ref="A1:C240"/>
+  <dimension ref="A1:C252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="K227" sqref="K227:L227"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="M251" sqref="M251"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="39.75" customWidth="1"/>
+    <col min="2" max="2" width="39.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.8" thickBot="1">
+    <row r="1" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1246,7 +1282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.8" thickBot="1">
+    <row r="2" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>113292</v>
       </c>
@@ -1257,7 +1293,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13.8" thickBot="1">
+    <row r="3" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>131685</v>
       </c>
@@ -1268,7 +1304,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13.8" thickBot="1">
+    <row r="4" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>100304</v>
       </c>
@@ -1279,7 +1315,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13.8" thickBot="1">
+    <row r="5" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>109124</v>
       </c>
@@ -1290,7 +1326,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13.8" thickBot="1">
+    <row r="6" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>113097</v>
       </c>
@@ -1301,7 +1337,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13.8" thickBot="1">
+    <row r="7" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>22491</v>
       </c>
@@ -1312,7 +1348,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13.8" thickBot="1">
+    <row r="8" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>3381</v>
       </c>
@@ -1323,7 +1359,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="13.8" thickBot="1">
+    <row r="9" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>364</v>
       </c>
@@ -1334,7 +1370,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="13.8" thickBot="1">
+    <row r="10" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>3280</v>
       </c>
@@ -1345,7 +1381,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13.8" thickBot="1">
+    <row r="11" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>102142</v>
       </c>
@@ -1356,7 +1392,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="13.8" thickBot="1">
+    <row r="12" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>111467</v>
       </c>
@@ -1367,7 +1403,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="13.8" thickBot="1">
+    <row r="13" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>115936</v>
       </c>
@@ -1378,7 +1414,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="13.8" thickBot="1">
+    <row r="14" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>391</v>
       </c>
@@ -1389,7 +1425,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="13.8" thickBot="1">
+    <row r="15" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>123898</v>
       </c>
@@ -1400,7 +1436,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="13.8" thickBot="1">
+    <row r="16" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>27508</v>
       </c>
@@ -1411,7 +1447,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="13.8" thickBot="1">
+    <row r="17" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>27570</v>
       </c>
@@ -1422,7 +1458,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="13.8" thickBot="1">
+    <row r="18" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>27371</v>
       </c>
@@ -1433,7 +1469,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="13.8" thickBot="1">
+    <row r="19" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>3621</v>
       </c>
@@ -1444,7 +1480,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="13.8" thickBot="1">
+    <row r="20" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>2623</v>
       </c>
@@ -1455,7 +1491,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="13.8" thickBot="1">
+    <row r="21" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>2797</v>
       </c>
@@ -1466,7 +1502,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="13.8" thickBot="1">
+    <row r="22" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>1980</v>
       </c>
@@ -1477,7 +1513,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="13.8" thickBot="1">
+    <row r="23" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>1923</v>
       </c>
@@ -1488,7 +1524,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="13.8" thickBot="1">
+    <row r="24" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>1687</v>
       </c>
@@ -1499,7 +1535,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="13.8" thickBot="1">
+    <row r="25" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>8297</v>
       </c>
@@ -1510,7 +1546,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="13.8" thickBot="1">
+    <row r="26" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>2591</v>
       </c>
@@ -1521,7 +1557,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="13.8" thickBot="1">
+    <row r="27" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>2789</v>
       </c>
@@ -1532,7 +1568,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="13.8" thickBot="1">
+    <row r="28" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>1525</v>
       </c>
@@ -1543,7 +1579,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="13.8" thickBot="1">
+    <row r="29" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>2537</v>
       </c>
@@ -1554,7 +1590,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="13.8" thickBot="1">
+    <row r="30" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>2198</v>
       </c>
@@ -1565,7 +1601,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="13.8" thickBot="1">
+    <row r="31" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>3457</v>
       </c>
@@ -1576,7 +1612,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="13.8" thickBot="1">
+    <row r="32" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>2981</v>
       </c>
@@ -1587,7 +1623,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="13.8" thickBot="1">
+    <row r="33" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>121987</v>
       </c>
@@ -1598,7 +1634,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="13.8" thickBot="1">
+    <row r="34" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>3452</v>
       </c>
@@ -1609,7 +1645,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="13.8" thickBot="1">
+    <row r="35" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>3450</v>
       </c>
@@ -1620,7 +1656,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="13.8" thickBot="1">
+    <row r="36" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>1216</v>
       </c>
@@ -1631,7 +1667,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="13.8" thickBot="1">
+    <row r="37" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>120522</v>
       </c>
@@ -1642,7 +1678,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="13.8" thickBot="1">
+    <row r="38" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>117254</v>
       </c>
@@ -1653,7 +1689,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="13.8" thickBot="1">
+    <row r="39" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>128302</v>
       </c>
@@ -1664,7 +1700,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="13.8" thickBot="1">
+    <row r="40" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>111396</v>
       </c>
@@ -1675,7 +1711,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="13.8" thickBot="1">
+    <row r="41" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>103797</v>
       </c>
@@ -1686,7 +1722,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="13.8" thickBot="1">
+    <row r="42" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>113059</v>
       </c>
@@ -1697,7 +1733,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="13.8" thickBot="1">
+    <row r="43" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>125111</v>
       </c>
@@ -1708,7 +1744,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="13.8" thickBot="1">
+    <row r="44" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>133184</v>
       </c>
@@ -1719,7 +1755,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="13.8" thickBot="1">
+    <row r="45" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>26192</v>
       </c>
@@ -1730,7 +1766,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="13.8" thickBot="1">
+    <row r="46" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>3376</v>
       </c>
@@ -1741,7 +1777,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="13.8" thickBot="1">
+    <row r="47" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>22636</v>
       </c>
@@ -1752,7 +1788,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="13.8" thickBot="1">
+    <row r="48" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>119787</v>
       </c>
@@ -1763,7 +1799,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="13.8" thickBot="1">
+    <row r="49" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>112482</v>
       </c>
@@ -1774,7 +1810,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="13.8" thickBot="1">
+    <row r="50" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>8199</v>
       </c>
@@ -1785,7 +1821,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="13.8" thickBot="1">
+    <row r="51" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>8791</v>
       </c>
@@ -1796,7 +1832,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="13.8" thickBot="1">
+    <row r="52" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>111555</v>
       </c>
@@ -1807,7 +1843,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="13.8" thickBot="1">
+    <row r="53" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>120540</v>
       </c>
@@ -1818,7 +1854,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="13.8" thickBot="1">
+    <row r="54" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>3093</v>
       </c>
@@ -1829,7 +1865,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="13.8" thickBot="1">
+    <row r="55" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>102536</v>
       </c>
@@ -1840,7 +1876,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="13.8" thickBot="1">
+    <row r="56" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>8484</v>
       </c>
@@ -1851,7 +1887,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="13.8" thickBot="1">
+    <row r="57" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>109948</v>
       </c>
@@ -1862,7 +1898,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="13.8" thickBot="1">
+    <row r="58" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>115593</v>
       </c>
@@ -1873,7 +1909,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="13.8" thickBot="1">
+    <row r="59" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>9390</v>
       </c>
@@ -1884,7 +1920,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="13.8" thickBot="1">
+    <row r="60" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>126607</v>
       </c>
@@ -1895,7 +1931,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="13.8" thickBot="1">
+    <row r="61" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>8292</v>
       </c>
@@ -1906,7 +1942,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="13.8" thickBot="1">
+    <row r="62" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>2535</v>
       </c>
@@ -1917,7 +1953,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="13.8" thickBot="1">
+    <row r="63" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>24301</v>
       </c>
@@ -1928,7 +1964,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="13.8" thickBot="1">
+    <row r="64" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>119652</v>
       </c>
@@ -1939,7 +1975,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="13.8" thickBot="1">
+    <row r="65" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>105414</v>
       </c>
@@ -1950,7 +1986,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="13.8" thickBot="1">
+    <row r="66" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>107542</v>
       </c>
@@ -1961,7 +1997,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="13.8" thickBot="1">
+    <row r="67" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>19204</v>
       </c>
@@ -1972,7 +2008,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="13.8" thickBot="1">
+    <row r="68" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>19672</v>
       </c>
@@ -1983,7 +2019,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="13.8" thickBot="1">
+    <row r="69" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>26216</v>
       </c>
@@ -1994,7 +2030,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="13.8" thickBot="1">
+    <row r="70" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>113538</v>
       </c>
@@ -2005,7 +2041,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="13.8" thickBot="1">
+    <row r="71" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>114379</v>
       </c>
@@ -2016,7 +2052,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="13.8" thickBot="1">
+    <row r="72" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>114415</v>
       </c>
@@ -2027,7 +2063,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="13.8" thickBot="1">
+    <row r="73" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>115473</v>
       </c>
@@ -2038,7 +2074,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="13.8" thickBot="1">
+    <row r="74" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>119469</v>
       </c>
@@ -2049,7 +2085,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="13.8" thickBot="1">
+    <row r="75" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>111626</v>
       </c>
@@ -2060,7 +2096,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="13.8" thickBot="1">
+    <row r="76" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>22746</v>
       </c>
@@ -2071,7 +2107,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="13.8" thickBot="1">
+    <row r="77" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>22675</v>
       </c>
@@ -2082,7 +2118,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="13.8" thickBot="1">
+    <row r="78" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>15011</v>
       </c>
@@ -2093,7 +2129,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="13.8" thickBot="1">
+    <row r="79" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>111515</v>
       </c>
@@ -2104,7 +2140,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="13.8" thickBot="1">
+    <row r="80" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>103139</v>
       </c>
@@ -2115,7 +2151,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="13.8" thickBot="1">
+    <row r="81" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>610</v>
       </c>
@@ -2126,7 +2162,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="13.8" thickBot="1">
+    <row r="82" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>107544</v>
       </c>
@@ -2137,7 +2173,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="13.8" thickBot="1">
+    <row r="83" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>104126</v>
       </c>
@@ -2148,7 +2184,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="13.8" thickBot="1">
+    <row r="84" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>26107</v>
       </c>
@@ -2159,7 +2195,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="13.8" thickBot="1">
+    <row r="85" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>115046</v>
       </c>
@@ -2170,7 +2206,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="13.8" thickBot="1">
+    <row r="86" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>127132</v>
       </c>
@@ -2181,7 +2217,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="13.8" thickBot="1">
+    <row r="87" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>102313</v>
       </c>
@@ -2192,7 +2228,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="13.8" thickBot="1">
+    <row r="88" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>114809</v>
       </c>
@@ -2203,7 +2239,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="13.8" thickBot="1">
+    <row r="89" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>2988</v>
       </c>
@@ -2214,7 +2250,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="13.8" thickBot="1">
+    <row r="90" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>3034</v>
       </c>
@@ -2225,7 +2261,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="13.8" thickBot="1">
+    <row r="91" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>148337</v>
       </c>
@@ -2236,7 +2272,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="13.8" thickBot="1">
+    <row r="92" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>8877</v>
       </c>
@@ -2247,7 +2283,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="13.8" thickBot="1">
+    <row r="93" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>3333</v>
       </c>
@@ -2258,7 +2294,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="13.8" thickBot="1">
+    <row r="94" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>19220</v>
       </c>
@@ -2269,7 +2305,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="13.8" thickBot="1">
+    <row r="95" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>8895</v>
       </c>
@@ -2280,7 +2316,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="13.8" thickBot="1">
+    <row r="96" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>18210</v>
       </c>
@@ -2291,7 +2327,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="13.8" thickBot="1">
+    <row r="97" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>109379</v>
       </c>
@@ -2302,7 +2338,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="13.8" thickBot="1">
+    <row r="98" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>22124</v>
       </c>
@@ -2313,7 +2349,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="13.8" thickBot="1">
+    <row r="99" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>22788</v>
       </c>
@@ -2324,7 +2360,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="13.8" thickBot="1">
+    <row r="100" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>109250</v>
       </c>
@@ -2335,7 +2371,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="13.8" thickBot="1">
+    <row r="101" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>3832</v>
       </c>
@@ -2346,7 +2382,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="13.8" thickBot="1">
+    <row r="102" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>107404</v>
       </c>
@@ -2357,7 +2393,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="13.8" thickBot="1">
+    <row r="103" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>100310</v>
       </c>
@@ -2368,7 +2404,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="13.8" thickBot="1">
+    <row r="104" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>27820</v>
       </c>
@@ -2379,7 +2415,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="13.8" thickBot="1">
+    <row r="105" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>24845</v>
       </c>
@@ -2390,7 +2426,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="13.8" thickBot="1">
+    <row r="106" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>24911</v>
       </c>
@@ -2401,7 +2437,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="13.8" thickBot="1">
+    <row r="107" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>3833</v>
       </c>
@@ -2412,7 +2448,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="13.8" thickBot="1">
+    <row r="108" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>1238</v>
       </c>
@@ -2423,7 +2459,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="13.8" thickBot="1">
+    <row r="109" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>111330</v>
       </c>
@@ -2434,7 +2470,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="13.8" thickBot="1">
+    <row r="110" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>126062</v>
       </c>
@@ -2445,7 +2481,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="13.8" thickBot="1">
+    <row r="111" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>26160</v>
       </c>
@@ -2456,7 +2492,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="13.8" thickBot="1">
+    <row r="112" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>26834</v>
       </c>
@@ -2467,7 +2503,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="13.8" thickBot="1">
+    <row r="113" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>25827</v>
       </c>
@@ -2478,7 +2514,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="13.8" thickBot="1">
+    <row r="114" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>1191</v>
       </c>
@@ -2489,7 +2525,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="13.8" thickBot="1">
+    <row r="115" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>9348</v>
       </c>
@@ -2500,7 +2536,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="13.8" thickBot="1">
+    <row r="116" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>109051</v>
       </c>
@@ -2511,7 +2547,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="13.8" thickBot="1">
+    <row r="117" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>127574</v>
       </c>
@@ -2522,7 +2558,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="13.8" thickBot="1">
+    <row r="118" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>122863</v>
       </c>
@@ -2533,7 +2569,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="13.8" thickBot="1">
+    <row r="119" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>2990</v>
       </c>
@@ -2544,7 +2580,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="13.8" thickBot="1">
+    <row r="120" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>114972</v>
       </c>
@@ -2555,7 +2591,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="13.8" thickBot="1">
+    <row r="121" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>659</v>
       </c>
@@ -2566,7 +2602,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="13.8" thickBot="1">
+    <row r="122" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>1204</v>
       </c>
@@ -2577,7 +2613,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="13.8" thickBot="1">
+    <row r="123" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>3774</v>
       </c>
@@ -2588,7 +2624,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="13.8" thickBot="1">
+    <row r="124" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>121979</v>
       </c>
@@ -2599,7 +2635,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="13.8" thickBot="1">
+    <row r="125" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>130826</v>
       </c>
@@ -2610,7 +2646,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="13.8" thickBot="1">
+    <row r="126" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>17469</v>
       </c>
@@ -2621,7 +2657,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="13.8" thickBot="1">
+    <row r="127" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>113008</v>
       </c>
@@ -2632,7 +2668,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="13.8" thickBot="1">
+    <row r="128" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>10307</v>
       </c>
@@ -2643,7 +2679,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="13.8" thickBot="1">
+    <row r="129" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>24406</v>
       </c>
@@ -2654,7 +2690,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="13.8" thickBot="1">
+    <row r="130" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>117329</v>
       </c>
@@ -2665,7 +2701,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="13.8" thickBot="1">
+    <row r="131" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>107728</v>
       </c>
@@ -2676,7 +2712,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="13.8" thickBot="1">
+    <row r="132" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>135411</v>
       </c>
@@ -2687,7 +2723,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="13.8" thickBot="1">
+    <row r="133" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>109266</v>
       </c>
@@ -2698,7 +2734,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="13.8" thickBot="1">
+    <row r="134" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>110632</v>
       </c>
@@ -2709,7 +2745,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="13.8" thickBot="1">
+    <row r="135" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>107715</v>
       </c>
@@ -2720,7 +2756,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="13.8" thickBot="1">
+    <row r="136" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>118771</v>
       </c>
@@ -2731,7 +2767,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="13.8" thickBot="1">
+    <row r="137" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>102283</v>
       </c>
@@ -2742,7 +2778,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="13.8" thickBot="1">
+    <row r="138" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>1736</v>
       </c>
@@ -2753,7 +2789,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="13.8" thickBot="1">
+    <row r="139" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>126153</v>
       </c>
@@ -2764,7 +2800,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="13.8" thickBot="1">
+    <row r="140" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>118718</v>
       </c>
@@ -2775,7 +2811,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="13.8" thickBot="1">
+    <row r="141" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>18542</v>
       </c>
@@ -2786,7 +2822,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="13.8" thickBot="1">
+    <row r="142" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>27291</v>
       </c>
@@ -2797,7 +2833,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="13.8" thickBot="1">
+    <row r="143" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>1735</v>
       </c>
@@ -2808,7 +2844,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="13.8" thickBot="1">
+    <row r="144" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>26187</v>
       </c>
@@ -2819,7 +2855,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="13.8" thickBot="1">
+    <row r="145" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="5">
         <v>110209</v>
       </c>
@@ -2830,7 +2866,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="13.8" thickBot="1">
+    <row r="146" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="5">
         <v>110092</v>
       </c>
@@ -2841,7 +2877,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="13.8" thickBot="1">
+    <row r="147" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="5">
         <v>849</v>
       </c>
@@ -2852,7 +2888,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="13.8" thickBot="1">
+    <row r="148" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="5">
         <v>26046</v>
       </c>
@@ -2863,7 +2899,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="13.8" thickBot="1">
+    <row r="149" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="5">
         <v>11567</v>
       </c>
@@ -2874,7 +2910,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="13.8" thickBot="1">
+    <row r="150" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="5">
         <v>941</v>
       </c>
@@ -2885,7 +2921,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="13.8" thickBot="1">
+    <row r="151" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="5">
         <v>108064</v>
       </c>
@@ -2896,7 +2932,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="13.8" thickBot="1">
+    <row r="152" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="5">
         <v>124802</v>
       </c>
@@ -2907,7 +2943,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="13.8" thickBot="1">
+    <row r="153" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="5">
         <v>945</v>
       </c>
@@ -2918,7 +2954,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="13.8" thickBot="1">
+    <row r="154" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="5">
         <v>128515</v>
       </c>
@@ -2929,7 +2965,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="13.8" thickBot="1">
+    <row r="155" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="5">
         <v>114768</v>
       </c>
@@ -2940,7 +2976,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="13.8" thickBot="1">
+    <row r="156" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="5">
         <v>128027</v>
       </c>
@@ -2951,7 +2987,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="13.8" thickBot="1">
+    <row r="157" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="5">
         <v>27424</v>
       </c>
@@ -2962,7 +2998,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="13.8" thickBot="1">
+    <row r="158" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="5">
         <v>8104</v>
       </c>
@@ -2973,7 +3009,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="13.8" thickBot="1">
+    <row r="159" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="5">
         <v>556</v>
       </c>
@@ -2984,7 +3020,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="13.8" thickBot="1">
+    <row r="160" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="5">
         <v>110938</v>
       </c>
@@ -2995,7 +3031,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="13.8" thickBot="1">
+    <row r="161" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="5">
         <v>103136</v>
       </c>
@@ -3006,7 +3042,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="13.8" thickBot="1">
+    <row r="162" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="5">
         <v>1179</v>
       </c>
@@ -3017,7 +3053,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="13.8" thickBot="1">
+    <row r="163" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="5">
         <v>110936</v>
       </c>
@@ -3028,7 +3064,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="13.8" thickBot="1">
+    <row r="164" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="5">
         <v>109910</v>
       </c>
@@ -3039,7 +3075,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="13.8" thickBot="1">
+    <row r="165" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="5">
         <v>2976</v>
       </c>
@@ -3050,7 +3086,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="13.8" thickBot="1">
+    <row r="166" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="5">
         <v>10316</v>
       </c>
@@ -3061,7 +3097,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="13.8" thickBot="1">
+    <row r="167" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="5">
         <v>111002</v>
       </c>
@@ -3072,7 +3108,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="13.8" thickBot="1">
+    <row r="168" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="5">
         <v>9124</v>
       </c>
@@ -3083,7 +3119,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="13.8" thickBot="1">
+    <row r="169" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="5">
         <v>119275</v>
       </c>
@@ -3094,7 +3130,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="13.8" thickBot="1">
+    <row r="170" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="5">
         <v>111575</v>
       </c>
@@ -3105,7 +3141,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="13.8" thickBot="1">
+    <row r="171" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="5">
         <v>119053</v>
       </c>
@@ -3116,7 +3152,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="13.8" thickBot="1">
+    <row r="172" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="5">
         <v>134321</v>
       </c>
@@ -3127,7 +3163,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="13.8" thickBot="1">
+    <row r="173" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="5">
         <v>124651</v>
       </c>
@@ -3138,7 +3174,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="13.8" thickBot="1">
+    <row r="174" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="5">
         <v>136043</v>
       </c>
@@ -3149,7 +3185,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="13.8" thickBot="1">
+    <row r="175" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="5">
         <v>26896</v>
       </c>
@@ -3160,7 +3196,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="13.8" thickBot="1">
+    <row r="176" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="5">
         <v>103025</v>
       </c>
@@ -3171,7 +3207,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="13.8" thickBot="1">
+    <row r="177" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="5">
         <v>26869</v>
       </c>
@@ -3182,7 +3218,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="13.8" thickBot="1">
+    <row r="178" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="5">
         <v>156291</v>
       </c>
@@ -3193,7 +3229,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="13.8" thickBot="1">
+    <row r="179" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="5">
         <v>112914</v>
       </c>
@@ -3204,7 +3240,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="13.8" thickBot="1">
+    <row r="180" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="5">
         <v>9354</v>
       </c>
@@ -3215,7 +3251,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="13.8" thickBot="1">
+    <row r="181" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>119588</v>
       </c>
@@ -3226,7 +3262,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="13.8" thickBot="1">
+    <row r="182" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
         <v>119155</v>
       </c>
@@ -3237,7 +3273,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="13.8" thickBot="1">
+    <row r="183" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
         <v>107072</v>
       </c>
@@ -3248,7 +3284,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="13.8" thickBot="1">
+    <row r="184" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
         <v>153402</v>
       </c>
@@ -3259,7 +3295,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="13.8" thickBot="1">
+    <row r="185" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
         <v>110153</v>
       </c>
@@ -3270,7 +3306,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="13.8" thickBot="1">
+    <row r="186" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>3467</v>
       </c>
@@ -3281,7 +3317,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="13.8" thickBot="1">
+    <row r="187" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
         <v>100653</v>
       </c>
@@ -3292,7 +3328,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="13.8" thickBot="1">
+    <row r="188" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <v>3470</v>
       </c>
@@ -3303,7 +3339,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="13.8" thickBot="1">
+    <row r="189" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
         <v>815</v>
       </c>
@@ -3314,7 +3350,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="13.8" thickBot="1">
+    <row r="190" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>127599</v>
       </c>
@@ -3325,7 +3361,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="13.8" thickBot="1">
+    <row r="191" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
         <v>107073</v>
       </c>
@@ -3336,7 +3372,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="13.8" thickBot="1">
+    <row r="192" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>102941</v>
       </c>
@@ -3347,7 +3383,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="13.8" thickBot="1">
+    <row r="193" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>8626</v>
       </c>
@@ -3358,7 +3394,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="13.8" thickBot="1">
+    <row r="194" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>1483</v>
       </c>
@@ -3369,7 +3405,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="13.8" thickBot="1">
+    <row r="195" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="5">
         <v>1471</v>
       </c>
@@ -3380,7 +3416,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="13.8" thickBot="1">
+    <row r="196" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="5">
         <v>107579</v>
       </c>
@@ -3391,7 +3427,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="13.8" thickBot="1">
+    <row r="197" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="5">
         <v>2505</v>
       </c>
@@ -3402,7 +3438,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="13.8" thickBot="1">
+    <row r="198" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="5">
         <v>1467</v>
       </c>
@@ -3413,7 +3449,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="13.8" thickBot="1">
+    <row r="199" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="5">
         <v>154917</v>
       </c>
@@ -3424,7 +3460,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="13.8" thickBot="1">
+    <row r="200" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="5">
         <v>142558</v>
       </c>
@@ -3435,7 +3471,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="13.8" thickBot="1">
+    <row r="201" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="5">
         <v>3081</v>
       </c>
@@ -3446,7 +3482,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="13.8" thickBot="1">
+    <row r="202" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="5">
         <v>126060</v>
       </c>
@@ -3457,7 +3493,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="13.8" thickBot="1">
+    <row r="203" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="5">
         <v>102312</v>
       </c>
@@ -3468,7 +3504,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="13.8" thickBot="1">
+    <row r="204" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="5">
         <v>144023</v>
       </c>
@@ -3479,7 +3515,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="13.8" thickBot="1">
+    <row r="205" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="7">
         <v>101273</v>
       </c>
@@ -3490,7 +3526,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="13.8" thickBot="1">
+    <row r="206" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="8">
         <v>111038</v>
       </c>
@@ -3501,7 +3537,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="13.8" thickBot="1">
+    <row r="207" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="7">
         <v>102119</v>
       </c>
@@ -3512,7 +3548,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="13.8" thickBot="1">
+    <row r="208" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="8">
         <v>109412</v>
       </c>
@@ -3523,7 +3559,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="13.8" thickBot="1">
+    <row r="209" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="7">
         <v>103518</v>
       </c>
@@ -3534,7 +3570,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="13.8" thickBot="1">
+    <row r="210" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="8">
         <v>105153</v>
       </c>
@@ -3545,7 +3581,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="13.8" thickBot="1">
+    <row r="211" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="7">
         <v>109929</v>
       </c>
@@ -3556,7 +3592,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="13.8" thickBot="1">
+    <row r="212" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="8">
         <v>1804</v>
       </c>
@@ -3567,7 +3603,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="13.8" thickBot="1">
+    <row r="213" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="7">
         <v>2490</v>
       </c>
@@ -3578,7 +3614,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="13.8" thickBot="1">
+    <row r="214" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="8">
         <v>22911</v>
       </c>
@@ -3589,7 +3625,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="13.8" thickBot="1">
+    <row r="215" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="7">
         <v>135404</v>
       </c>
@@ -3600,7 +3636,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="13.8" thickBot="1">
+    <row r="216" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="8">
         <v>13698</v>
       </c>
@@ -3611,7 +3647,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="13.8" thickBot="1">
+    <row r="217" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
         <v>3356</v>
       </c>
@@ -3622,7 +3658,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="13.8" thickBot="1">
+    <row r="218" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="4">
         <v>3209</v>
       </c>
@@ -3633,7 +3669,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="13.8" thickBot="1">
+    <row r="219" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
         <v>3354</v>
       </c>
@@ -3644,7 +3680,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="13.8" thickBot="1">
+    <row r="220" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
         <v>25853</v>
       </c>
@@ -3655,7 +3691,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="13.8" thickBot="1">
+    <row r="221" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
         <v>17538</v>
       </c>
@@ -3666,7 +3702,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="13.8" thickBot="1">
+    <row r="222" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
         <v>104934</v>
       </c>
@@ -3677,7 +3713,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="13.8" thickBot="1">
+    <row r="223" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="3">
         <v>3204</v>
       </c>
@@ -3688,7 +3724,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="13.8" thickBot="1">
+    <row r="224" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>8073</v>
       </c>
@@ -3699,7 +3735,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="13.8" thickBot="1">
+    <row r="225" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="3">
         <v>103269</v>
       </c>
@@ -3710,7 +3746,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="13.8" thickBot="1">
+    <row r="226" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>119166</v>
       </c>
@@ -3721,7 +3757,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="13.8" thickBot="1">
+    <row r="227" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="5">
         <v>103269</v>
       </c>
@@ -3732,7 +3768,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="13.8" thickBot="1">
+    <row r="228" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="5">
         <v>26639</v>
       </c>
@@ -3743,7 +3779,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="13.8" thickBot="1">
+    <row r="229" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="5">
         <v>3615</v>
       </c>
@@ -3754,7 +3790,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="13.8" thickBot="1">
+    <row r="230" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="5">
         <v>8247</v>
       </c>
@@ -3765,7 +3801,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="13.8" thickBot="1">
+    <row r="231" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="5">
         <v>1420</v>
       </c>
@@ -3776,7 +3812,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="13.8" thickBot="1">
+    <row r="232" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="5">
         <v>103865</v>
       </c>
@@ -3787,7 +3823,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="13.8" thickBot="1">
+    <row r="233" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="5">
         <v>14462</v>
       </c>
@@ -3798,7 +3834,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="13.8" thickBot="1">
+    <row r="234" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="5">
         <v>110681</v>
       </c>
@@ -3809,7 +3845,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="13.8" thickBot="1">
+    <row r="235" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="5">
         <v>102622</v>
       </c>
@@ -3820,7 +3856,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="13.8" thickBot="1">
+    <row r="236" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="5">
         <v>127082</v>
       </c>
@@ -3831,7 +3867,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="13.8" thickBot="1">
+    <row r="237" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="7">
         <v>27540</v>
       </c>
@@ -3842,7 +3878,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="13.8" thickBot="1">
+    <row r="238" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="8">
         <v>120265</v>
       </c>
@@ -3853,7 +3889,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="13.8" thickBot="1">
+    <row r="239" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="7">
         <v>108756</v>
       </c>
@@ -3864,7 +3900,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="13.8" thickBot="1">
+    <row r="240" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="7">
         <v>102634</v>
       </c>
@@ -3872,6 +3908,138 @@
         <v>227</v>
       </c>
       <c r="C240" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="7">
+        <v>101283</v>
+      </c>
+      <c r="B241" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C241" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="7">
+        <v>2895</v>
+      </c>
+      <c r="B242" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C242" s="11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="8">
+        <v>3864</v>
+      </c>
+      <c r="B243" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C243" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="7">
+        <v>121277</v>
+      </c>
+      <c r="B244" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C244" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="8">
+        <v>3580</v>
+      </c>
+      <c r="B245" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C245" s="11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="8">
+        <v>8386</v>
+      </c>
+      <c r="B246" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C246" s="11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="7">
+        <v>26398</v>
+      </c>
+      <c r="B247" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C247" s="11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="8">
+        <v>2886</v>
+      </c>
+      <c r="B248" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C248" s="11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="7">
+        <v>7963</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C249" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="7">
+        <v>101480</v>
+      </c>
+      <c r="B250" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C250" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="8">
+        <v>104999</v>
+      </c>
+      <c r="B251" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C251" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="8">
+        <v>8333</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C252" s="11">
         <v>84</v>
       </c>
     </row>
